--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.75777977092301</v>
+        <v>23.75777977092293</v>
       </c>
       <c r="C2">
-        <v>17.27264737132415</v>
+        <v>17.27264737132417</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.87739837441116</v>
+        <v>13.87739837441134</v>
       </c>
       <c r="F2">
-        <v>63.95992369234255</v>
+        <v>63.95992369234293</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.45294295990237</v>
+        <v>36.45294295990269</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.81024852064937</v>
+        <v>12.8102485206493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.92348061789657</v>
+        <v>21.92348061789667</v>
       </c>
       <c r="C3">
-        <v>15.92899554690143</v>
+        <v>15.92899554690132</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.87550953138312</v>
+        <v>12.87550953138305</v>
       </c>
       <c r="F3">
-        <v>59.26743367057766</v>
+        <v>59.26743367057745</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.98318961019015</v>
+        <v>33.98318961018993</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.89379032257225</v>
+        <v>11.89379032257231</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.75652699124386</v>
+        <v>20.75652699124393</v>
       </c>
       <c r="C4">
-        <v>15.07628298243711</v>
+        <v>15.0762829824372</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.24786685209506</v>
+        <v>12.24786685209512</v>
       </c>
       <c r="F4">
-        <v>56.33181611372508</v>
+        <v>56.33181611372524</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.43678448184007</v>
+        <v>32.43678448184023</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.32262812494639</v>
+        <v>11.3226281249463</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.27012536628549</v>
+        <v>20.27012536628557</v>
       </c>
       <c r="C5">
         <v>14.72127410939104</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.98847621395404</v>
+        <v>11.98847621395411</v>
       </c>
       <c r="F5">
-        <v>55.11416832001355</v>
+        <v>55.1141683200136</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.79818191049555</v>
+        <v>31.79818191049561</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.08717056495801</v>
+        <v>11.08717056495803</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.1886864151469</v>
+        <v>20.18868641514685</v>
       </c>
       <c r="C6">
-        <v>14.6618561153438</v>
+        <v>14.66185611534369</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.94517359080363</v>
+        <v>11.94517359080325</v>
       </c>
       <c r="F6">
-        <v>54.91065131502832</v>
+        <v>54.91065131502777</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.69161176593668</v>
+        <v>31.69161176593619</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.04789466120137</v>
+        <v>11.04789466120135</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.7500119334373</v>
+        <v>20.75001193343728</v>
       </c>
       <c r="C7">
-        <v>15.07152634017448</v>
+        <v>15.0715263401744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.2443838494482</v>
+        <v>12.24438384944838</v>
       </c>
       <c r="F7">
-        <v>56.31548271931036</v>
+        <v>56.31548271931077</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.42820720204383</v>
+        <v>32.42820720204416</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.31946430335343</v>
+        <v>11.3194643033534</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.13334715906254</v>
+        <v>23.13334715906269</v>
       </c>
       <c r="C8">
-        <v>16.8147456580815</v>
+        <v>16.81474565808131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.53421355357177</v>
+        <v>13.53421355357208</v>
       </c>
       <c r="F8">
-        <v>62.33119116456579</v>
+        <v>62.33119116456643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.60697222913964</v>
+        <v>35.60697222914019</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.49562564850958</v>
+        <v>12.49562564850954</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.51907625503431</v>
+        <v>27.51907625503456</v>
       </c>
       <c r="C9">
-        <v>20.04377578856051</v>
+        <v>20.04377578856058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.99286994863272</v>
+        <v>15.99286994863346</v>
       </c>
       <c r="F9">
-        <v>73.90482450873958</v>
+        <v>73.90482450874097</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.65887422770852</v>
+        <v>41.65887422770972</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.76798856685769</v>
+        <v>14.76798856685777</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62827751158046</v>
+        <v>30.6282775115806</v>
       </c>
       <c r="C10">
-        <v>22.35496245418398</v>
+        <v>22.35496245418406</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80972712771365</v>
+        <v>17.80972712771392</v>
       </c>
       <c r="F10">
-        <v>82.23469878566381</v>
+        <v>82.23469878566438</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.10490638631029</v>
+        <v>46.10490638631081</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.47785784191814</v>
+        <v>16.47785784191816</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>32.03807761759553</v>
       </c>
       <c r="C11">
-        <v>23.41034252454109</v>
+        <v>23.4103425245413</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.65657071134166</v>
+        <v>18.65657071134176</v>
       </c>
       <c r="F11">
-        <v>86.04851104779834</v>
+        <v>86.0485110477985</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.16543073957899</v>
+        <v>48.1654307395792</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.28470650182094</v>
+        <v>17.28470650182092</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.57362604983458</v>
+        <v>32.57362604983471</v>
       </c>
       <c r="C12">
-        <v>23.81261371804252</v>
+        <v>23.81261371804288</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.98240262844601</v>
+        <v>18.98240262844621</v>
       </c>
       <c r="F12">
-        <v>87.50393957335238</v>
+        <v>87.50393957335277</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.95586909801303</v>
+        <v>48.95586909801344</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.5968852671647</v>
+        <v>17.5968852671648</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.45816491693512</v>
+        <v>32.45816491693511</v>
       </c>
       <c r="C13">
-        <v>23.72582054038608</v>
+        <v>23.72582054038637</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91195515342592</v>
+        <v>18.91195515342622</v>
       </c>
       <c r="F13">
-        <v>87.18983479591235</v>
+        <v>87.18983479591289</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.78508791244982</v>
+        <v>48.78508791245024</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.52930723175253</v>
+        <v>17.52930723175256</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.08208737339695</v>
+        <v>32.08208737339703</v>
       </c>
       <c r="C14">
-        <v>23.44337083722004</v>
+        <v>23.44337083721981</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.6832581086971</v>
+        <v>18.68325810869705</v>
       </c>
       <c r="F14">
-        <v>86.16797105376075</v>
+        <v>86.16797105376067</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.230223666324</v>
+        <v>48.23022366632391</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.31023909382361</v>
+        <v>17.31023909382358</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.8520319521525</v>
+        <v>31.85203195215263</v>
       </c>
       <c r="C15">
-        <v>23.27077621643018</v>
+        <v>23.27077621643017</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.54392554343147</v>
+        <v>18.5439255434314</v>
       </c>
       <c r="F15">
-        <v>85.54378672013921</v>
+        <v>85.5437867201391</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.89184593097885</v>
+        <v>47.89184593097875</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.17700725139246</v>
+        <v>17.17700725139251</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53623514518145</v>
+        <v>30.53623514518156</v>
       </c>
       <c r="C16">
-        <v>22.28623146773855</v>
+        <v>22.28623146773869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.7549657208956</v>
+        <v>17.75496572089569</v>
       </c>
       <c r="F16">
-        <v>81.98654915326519</v>
+        <v>81.98654915326541</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.97137516363308</v>
+        <v>45.97137516363328</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.42590418704528</v>
+        <v>16.42590418704532</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.72930724019059</v>
+        <v>29.72930724019076</v>
       </c>
       <c r="C17">
-        <v>21.68453011583266</v>
+        <v>21.68453011583243</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.27752399670412</v>
+        <v>17.2775239967047</v>
       </c>
       <c r="F17">
-        <v>79.81527215384767</v>
+        <v>79.81527215384867</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.8058105573</v>
+        <v>44.805810557301</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.97406254832864</v>
+        <v>15.97406254832869</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.264575803491</v>
+        <v>29.26457580349092</v>
       </c>
       <c r="C18">
-        <v>21.33867153909961</v>
+        <v>21.3386715390997</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>17.00465764951133</v>
       </c>
       <c r="F18">
-        <v>78.56813556752769</v>
+        <v>78.56813556752756</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.13862709925971</v>
+        <v>44.13862709925962</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.71671937330976</v>
+        <v>15.71671937330979</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.10706146704636</v>
+        <v>29.10706146704653</v>
       </c>
       <c r="C19">
-        <v>21.22155623567402</v>
+        <v>21.22155623567428</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.91251403698476</v>
+        <v>16.91251403698503</v>
       </c>
       <c r="F19">
-        <v>78.14597897252852</v>
+        <v>78.14597897252928</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.91316564381271</v>
+        <v>43.91316564381327</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.62996238361221</v>
+        <v>15.62996238361234</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.81525436174788</v>
+        <v>29.81525436174776</v>
       </c>
       <c r="C20">
-        <v>21.74854632645923</v>
+        <v>21.74854632645926</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.32815419874001</v>
+        <v>17.32815419873974</v>
       </c>
       <c r="F20">
-        <v>80.04618232719272</v>
+        <v>80.04618232719234</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.92952499225545</v>
+        <v>44.92952499225505</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.021883351706</v>
+        <v>16.02188335170599</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>32.19248195616738</v>
       </c>
       <c r="C21">
-        <v>23.52624219223685</v>
+        <v>23.52624219223689</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.75027024520414</v>
+        <v>18.75027024520423</v>
       </c>
       <c r="F21">
-        <v>86.46773738315052</v>
+        <v>86.46773738315055</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.39287866923203</v>
+        <v>48.39287866923211</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.37438019751069</v>
+        <v>17.37438019751066</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.75772312425482</v>
+        <v>33.75772312425453</v>
       </c>
       <c r="C22">
-        <v>24.70488094266145</v>
+        <v>24.70488094266126</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.71145976166028</v>
+        <v>19.71145976165959</v>
       </c>
       <c r="F22">
-        <v>90.73588167415865</v>
+        <v>90.73588167415697</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.71925720666325</v>
+        <v>50.71925720666185</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.29893595342215</v>
+        <v>18.29893595342192</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.92025903188786</v>
+        <v>32.92025903188798</v>
       </c>
       <c r="C23">
-        <v>24.07340261278984</v>
+        <v>24.07340261278996</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.19457060421236</v>
+        <v>19.19457060421325</v>
       </c>
       <c r="F23">
-        <v>88.44802163625984</v>
+        <v>88.44802163626156</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.46981064216886</v>
+        <v>49.46981064217027</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.80068718955586</v>
+        <v>17.8006871895559</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.77640038096163</v>
+        <v>29.77640038096158</v>
       </c>
       <c r="C24">
-        <v>21.71960453124089</v>
+        <v>21.71960453124076</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.30525938994517</v>
+        <v>17.3052593899449</v>
       </c>
       <c r="F24">
-        <v>79.94178476588772</v>
+        <v>79.94178476588715</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.87358494461436</v>
+        <v>44.87358494461387</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.00025618105995</v>
+        <v>16.00025618105996</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35788593885092</v>
+        <v>26.35788593885084</v>
       </c>
       <c r="C25">
-        <v>19.18568013853604</v>
+        <v>19.18568013853616</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.33067011551662</v>
+        <v>15.33067011551671</v>
       </c>
       <c r="F25">
         <v>70.81994474384074</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.1515621081591</v>
+        <v>14.15156210815903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.75777977092293</v>
+        <v>23.75777977092301</v>
       </c>
       <c r="C2">
-        <v>17.27264737132417</v>
+        <v>17.27264737132415</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.87739837441134</v>
+        <v>13.87739837441116</v>
       </c>
       <c r="F2">
-        <v>63.95992369234293</v>
+        <v>63.95992369234255</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.45294295990269</v>
+        <v>36.45294295990237</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.8102485206493</v>
+        <v>12.81024852064937</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.92348061789667</v>
+        <v>21.92348061789657</v>
       </c>
       <c r="C3">
-        <v>15.92899554690132</v>
+        <v>15.92899554690143</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.87550953138305</v>
+        <v>12.87550953138312</v>
       </c>
       <c r="F3">
-        <v>59.26743367057745</v>
+        <v>59.26743367057766</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.98318961018993</v>
+        <v>33.98318961019015</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.89379032257231</v>
+        <v>11.89379032257225</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.75652699124393</v>
+        <v>20.75652699124386</v>
       </c>
       <c r="C4">
-        <v>15.0762829824372</v>
+        <v>15.07628298243711</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.24786685209512</v>
+        <v>12.24786685209506</v>
       </c>
       <c r="F4">
-        <v>56.33181611372524</v>
+        <v>56.33181611372508</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.43678448184023</v>
+        <v>32.43678448184007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.3226281249463</v>
+        <v>11.32262812494639</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.27012536628557</v>
+        <v>20.27012536628549</v>
       </c>
       <c r="C5">
         <v>14.72127410939104</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.98847621395411</v>
+        <v>11.98847621395404</v>
       </c>
       <c r="F5">
-        <v>55.1141683200136</v>
+        <v>55.11416832001355</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.79818191049561</v>
+        <v>31.79818191049555</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.08717056495803</v>
+        <v>11.08717056495801</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.18868641514685</v>
+        <v>20.1886864151469</v>
       </c>
       <c r="C6">
-        <v>14.66185611534369</v>
+        <v>14.6618561153438</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.94517359080325</v>
+        <v>11.94517359080363</v>
       </c>
       <c r="F6">
-        <v>54.91065131502777</v>
+        <v>54.91065131502832</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.69161176593619</v>
+        <v>31.69161176593668</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.04789466120135</v>
+        <v>11.04789466120137</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.75001193343728</v>
+        <v>20.7500119334373</v>
       </c>
       <c r="C7">
-        <v>15.0715263401744</v>
+        <v>15.07152634017448</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.24438384944838</v>
+        <v>12.2443838494482</v>
       </c>
       <c r="F7">
-        <v>56.31548271931077</v>
+        <v>56.31548271931036</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.42820720204416</v>
+        <v>32.42820720204383</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.3194643033534</v>
+        <v>11.31946430335343</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.13334715906269</v>
+        <v>23.13334715906254</v>
       </c>
       <c r="C8">
-        <v>16.81474565808131</v>
+        <v>16.8147456580815</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.53421355357208</v>
+        <v>13.53421355357177</v>
       </c>
       <c r="F8">
-        <v>62.33119116456643</v>
+        <v>62.33119116456579</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.60697222914019</v>
+        <v>35.60697222913964</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.49562564850954</v>
+        <v>12.49562564850958</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.51907625503456</v>
+        <v>27.51907625503431</v>
       </c>
       <c r="C9">
-        <v>20.04377578856058</v>
+        <v>20.04377578856051</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.99286994863346</v>
+        <v>15.99286994863272</v>
       </c>
       <c r="F9">
-        <v>73.90482450874097</v>
+        <v>73.90482450873958</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.65887422770972</v>
+        <v>41.65887422770852</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.76798856685777</v>
+        <v>14.76798856685769</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.6282775115806</v>
+        <v>30.62827751158046</v>
       </c>
       <c r="C10">
-        <v>22.35496245418406</v>
+        <v>22.35496245418398</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80972712771392</v>
+        <v>17.80972712771365</v>
       </c>
       <c r="F10">
-        <v>82.23469878566438</v>
+        <v>82.23469878566381</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.10490638631081</v>
+        <v>46.10490638631029</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.47785784191816</v>
+        <v>16.47785784191814</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>32.03807761759553</v>
       </c>
       <c r="C11">
-        <v>23.4103425245413</v>
+        <v>23.41034252454109</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.65657071134176</v>
+        <v>18.65657071134166</v>
       </c>
       <c r="F11">
-        <v>86.0485110477985</v>
+        <v>86.04851104779834</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.1654307395792</v>
+        <v>48.16543073957899</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.28470650182092</v>
+        <v>17.28470650182094</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.57362604983471</v>
+        <v>32.57362604983458</v>
       </c>
       <c r="C12">
-        <v>23.81261371804288</v>
+        <v>23.81261371804252</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.98240262844621</v>
+        <v>18.98240262844601</v>
       </c>
       <c r="F12">
-        <v>87.50393957335277</v>
+        <v>87.50393957335238</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.95586909801344</v>
+        <v>48.95586909801303</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.5968852671648</v>
+        <v>17.5968852671647</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.45816491693511</v>
+        <v>32.45816491693512</v>
       </c>
       <c r="C13">
-        <v>23.72582054038637</v>
+        <v>23.72582054038608</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91195515342622</v>
+        <v>18.91195515342592</v>
       </c>
       <c r="F13">
-        <v>87.18983479591289</v>
+        <v>87.18983479591235</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.78508791245024</v>
+        <v>48.78508791244982</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.52930723175256</v>
+        <v>17.52930723175253</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.08208737339703</v>
+        <v>32.08208737339695</v>
       </c>
       <c r="C14">
-        <v>23.44337083721981</v>
+        <v>23.44337083722004</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.68325810869705</v>
+        <v>18.6832581086971</v>
       </c>
       <c r="F14">
-        <v>86.16797105376067</v>
+        <v>86.16797105376075</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.23022366632391</v>
+        <v>48.230223666324</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.31023909382358</v>
+        <v>17.31023909382361</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.85203195215263</v>
+        <v>31.8520319521525</v>
       </c>
       <c r="C15">
-        <v>23.27077621643017</v>
+        <v>23.27077621643018</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.5439255434314</v>
+        <v>18.54392554343147</v>
       </c>
       <c r="F15">
-        <v>85.5437867201391</v>
+        <v>85.54378672013921</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.89184593097875</v>
+        <v>47.89184593097885</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.17700725139251</v>
+        <v>17.17700725139246</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53623514518156</v>
+        <v>30.53623514518145</v>
       </c>
       <c r="C16">
-        <v>22.28623146773869</v>
+        <v>22.28623146773855</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.75496572089569</v>
+        <v>17.7549657208956</v>
       </c>
       <c r="F16">
-        <v>81.98654915326541</v>
+        <v>81.98654915326519</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.97137516363328</v>
+        <v>45.97137516363308</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.42590418704532</v>
+        <v>16.42590418704528</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.72930724019076</v>
+        <v>29.72930724019059</v>
       </c>
       <c r="C17">
-        <v>21.68453011583243</v>
+        <v>21.68453011583266</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.2775239967047</v>
+        <v>17.27752399670412</v>
       </c>
       <c r="F17">
-        <v>79.81527215384867</v>
+        <v>79.81527215384767</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.805810557301</v>
+        <v>44.8058105573</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.97406254832869</v>
+        <v>15.97406254832864</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.26457580349092</v>
+        <v>29.264575803491</v>
       </c>
       <c r="C18">
-        <v>21.3386715390997</v>
+        <v>21.33867153909961</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>17.00465764951133</v>
       </c>
       <c r="F18">
-        <v>78.56813556752756</v>
+        <v>78.56813556752769</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.13862709925962</v>
+        <v>44.13862709925971</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.71671937330979</v>
+        <v>15.71671937330976</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.10706146704653</v>
+        <v>29.10706146704636</v>
       </c>
       <c r="C19">
-        <v>21.22155623567428</v>
+        <v>21.22155623567402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.91251403698503</v>
+        <v>16.91251403698476</v>
       </c>
       <c r="F19">
-        <v>78.14597897252928</v>
+        <v>78.14597897252852</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.91316564381327</v>
+        <v>43.91316564381271</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.62996238361234</v>
+        <v>15.62996238361221</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.81525436174776</v>
+        <v>29.81525436174788</v>
       </c>
       <c r="C20">
-        <v>21.74854632645926</v>
+        <v>21.74854632645923</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.32815419873974</v>
+        <v>17.32815419874001</v>
       </c>
       <c r="F20">
-        <v>80.04618232719234</v>
+        <v>80.04618232719272</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.92952499225505</v>
+        <v>44.92952499225545</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.02188335170599</v>
+        <v>16.021883351706</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>32.19248195616738</v>
       </c>
       <c r="C21">
-        <v>23.52624219223689</v>
+        <v>23.52624219223685</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.75027024520423</v>
+        <v>18.75027024520414</v>
       </c>
       <c r="F21">
-        <v>86.46773738315055</v>
+        <v>86.46773738315052</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.39287866923211</v>
+        <v>48.39287866923203</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.37438019751066</v>
+        <v>17.37438019751069</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.75772312425453</v>
+        <v>33.75772312425482</v>
       </c>
       <c r="C22">
-        <v>24.70488094266126</v>
+        <v>24.70488094266145</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.71145976165959</v>
+        <v>19.71145976166028</v>
       </c>
       <c r="F22">
-        <v>90.73588167415697</v>
+        <v>90.73588167415865</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.71925720666185</v>
+        <v>50.71925720666325</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.29893595342192</v>
+        <v>18.29893595342215</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.92025903188798</v>
+        <v>32.92025903188786</v>
       </c>
       <c r="C23">
-        <v>24.07340261278996</v>
+        <v>24.07340261278984</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.19457060421325</v>
+        <v>19.19457060421236</v>
       </c>
       <c r="F23">
-        <v>88.44802163626156</v>
+        <v>88.44802163625984</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.46981064217027</v>
+        <v>49.46981064216886</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.8006871895559</v>
+        <v>17.80068718955586</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.77640038096158</v>
+        <v>29.77640038096163</v>
       </c>
       <c r="C24">
-        <v>21.71960453124076</v>
+        <v>21.71960453124089</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.3052593899449</v>
+        <v>17.30525938994517</v>
       </c>
       <c r="F24">
-        <v>79.94178476588715</v>
+        <v>79.94178476588772</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.87358494461387</v>
+        <v>44.87358494461436</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.00025618105996</v>
+        <v>16.00025618105995</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35788593885084</v>
+        <v>26.35788593885092</v>
       </c>
       <c r="C25">
-        <v>19.18568013853616</v>
+        <v>19.18568013853604</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.33067011551671</v>
+        <v>15.33067011551662</v>
       </c>
       <c r="F25">
         <v>70.81994474384074</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.15156210815903</v>
+        <v>14.1515621081591</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.75777977092301</v>
+        <v>23.57416376968639</v>
       </c>
       <c r="C2">
-        <v>17.27264737132415</v>
+        <v>17.05726901268598</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.87739837441116</v>
+        <v>14.04281200464061</v>
       </c>
       <c r="F2">
-        <v>63.95992369234255</v>
+        <v>63.89354161858824</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.045747832843773</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.45294295990237</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>36.49689545050705</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.81024852064937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>12.70763869962507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.92348061789657</v>
+        <v>21.7544544641388</v>
       </c>
       <c r="C3">
-        <v>15.92899554690143</v>
+        <v>15.72369420680762</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.87550953138312</v>
+        <v>13.05036603352371</v>
       </c>
       <c r="F3">
-        <v>59.26743367057766</v>
+        <v>59.24379886842537</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.063575177382287</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.98318961019015</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>34.04449145656348</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.89379032257225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11.79406025118187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.75652699124386</v>
+        <v>20.59701700332646</v>
       </c>
       <c r="C4">
-        <v>15.07628298243711</v>
+        <v>14.87733764777233</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.24786685209506</v>
+        <v>12.42904496741979</v>
       </c>
       <c r="F4">
-        <v>56.33181611372508</v>
+        <v>56.3207595711695</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.074554199605751</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.43678448184007</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>32.50918620425958</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.32262812494639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11.22446535386246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.27012536628549</v>
+        <v>20.11465928071242</v>
       </c>
       <c r="C5">
-        <v>14.72127410939104</v>
+        <v>14.52497541285464</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.98847621395404</v>
+        <v>12.17237899085524</v>
       </c>
       <c r="F5">
-        <v>55.11416832001355</v>
+        <v>55.10836985459638</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.079048124194553</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.79818191049555</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>31.8752474911037</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.08717056495801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.98960399970435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.1886864151469</v>
+        <v>20.03390261199196</v>
       </c>
       <c r="C6">
-        <v>14.6618561153438</v>
+        <v>14.46600069483281</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.94517359080363</v>
+        <v>12.12953825626026</v>
       </c>
       <c r="F6">
-        <v>54.91065131502832</v>
+        <v>54.9057350870104</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.079795844766267</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.69161176593668</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>31.76946102040497</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.04789466120137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.9504247203261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.7500119334373</v>
+        <v>20.59055577633638</v>
       </c>
       <c r="C7">
-        <v>15.07152634017448</v>
+        <v>14.8726164524133</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.2443838494482</v>
+        <v>12.42559808695222</v>
       </c>
       <c r="F7">
-        <v>56.31548271931036</v>
+        <v>56.30449650103887</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.074614711650714</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.42820720204383</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>32.50067121923092</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.31946430335343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>11.22130973601488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.13334715906254</v>
+        <v>22.95466128412496</v>
       </c>
       <c r="C8">
-        <v>16.8147456580815</v>
+        <v>16.60281580476297</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.53421355357177</v>
+        <v>13.70278473475818</v>
       </c>
       <c r="F8">
-        <v>62.33119116456579</v>
+        <v>62.29447062671195</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.051895422152499</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.60697222913964</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>35.65683212517132</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.49562564850958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>12.39405610496806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.51907625503431</v>
+        <v>27.30592441323943</v>
       </c>
       <c r="C9">
-        <v>20.04377578856051</v>
+        <v>19.80690239889541</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.99286994863272</v>
+        <v>16.13998548732702</v>
       </c>
       <c r="F9">
-        <v>73.90482450873958</v>
+        <v>73.79792715576738</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.006964306990476</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.65887422770852</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>41.66641018958146</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.76798856685769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>14.65759284245899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62827751158046</v>
+        <v>30.38986215265297</v>
       </c>
       <c r="C10">
-        <v>22.35496245418398</v>
+        <v>22.09873778036894</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80972712771365</v>
+        <v>17.94172967857849</v>
       </c>
       <c r="F10">
-        <v>82.23469878566381</v>
+        <v>82.08887727483319</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.972573155161575</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.10490638631029</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>46.07965565116536</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.47785784191814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.35850329344179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.03807761759553</v>
+        <v>31.78757997751818</v>
       </c>
       <c r="C11">
-        <v>23.41034252454109</v>
+        <v>23.14460674797103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.65657071134166</v>
+        <v>18.7813812201478</v>
       </c>
       <c r="F11">
-        <v>86.04851104779834</v>
+        <v>85.88248732350696</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.956261706849397</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.16543073957899</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>48.12385650483267</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.28470650182094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>17.16026540922367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.57362604983458</v>
+        <v>32.31839198680181</v>
       </c>
       <c r="C12">
-        <v>23.81261371804252</v>
+        <v>23.54310991780931</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.98240262844601</v>
+        <v>19.10438322175388</v>
       </c>
       <c r="F12">
-        <v>87.50393957335238</v>
+        <v>87.32969884621282</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.949945594526452</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.95586909801303</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>48.90776994607542</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.5968852671647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>17.4703048104715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.45816491693512</v>
+        <v>32.20395967883449</v>
       </c>
       <c r="C13">
-        <v>23.72582054038608</v>
+        <v>23.45713701343699</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91195515342592</v>
+        <v>19.03455125358849</v>
       </c>
       <c r="F13">
-        <v>87.18983479591235</v>
+        <v>87.01739342955133</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.951312932870498</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.78508791244982</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>48.73841230811829</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.52930723175253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>17.40319848302827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.08208737339695</v>
+        <v>31.83120385168436</v>
       </c>
       <c r="C14">
-        <v>23.44337083722004</v>
+        <v>23.17732887607631</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.6832581086971</v>
+        <v>18.80783838788564</v>
       </c>
       <c r="F14">
-        <v>86.16797105376075</v>
+        <v>86.00128424047927</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.955745170700472</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.230223666324</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>48.18812056441516</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.31023909382361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17.1856267843547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.8520319521525</v>
+        <v>31.60315926701512</v>
       </c>
       <c r="C15">
-        <v>23.27077621643018</v>
+        <v>23.00632819919879</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.54392554343147</v>
+        <v>18.66970502088621</v>
       </c>
       <c r="F15">
-        <v>85.54378672013921</v>
+        <v>85.38054298371787</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.958440361306306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.89184593097885</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>47.85249353193432</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.17700725139246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.05328117619928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53623514518145</v>
+        <v>30.29859169539025</v>
       </c>
       <c r="C16">
-        <v>22.28623146773855</v>
+        <v>22.03060922970181</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.7549657208956</v>
+        <v>17.88742732170289</v>
       </c>
       <c r="F16">
-        <v>81.98654915326519</v>
+        <v>81.84198207539592</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.97362233108735</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.97137516363308</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>45.94715224108156</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.42590418704528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16.30685665576322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.72930724019059</v>
+        <v>29.49835626084925</v>
       </c>
       <c r="C17">
-        <v>21.68453011583266</v>
+        <v>21.43410312972625</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.27752399670412</v>
+        <v>17.41396833300965</v>
       </c>
       <c r="F17">
-        <v>79.81527215384767</v>
+        <v>79.68140364611106</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.98273845882837</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.8058105573</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>44.79042660274448</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.97406254832864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.85758759490753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.264575803491</v>
+        <v>29.03742452561891</v>
       </c>
       <c r="C18">
-        <v>21.33867153909961</v>
+        <v>21.09117114164519</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.00465764951133</v>
+        <v>17.14336767830103</v>
       </c>
       <c r="F18">
-        <v>78.56813556752769</v>
+        <v>78.44020223555221</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.987922312270846</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.13862709925971</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>44.12820563190036</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.71671937330976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.60163438665238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.10706146704636</v>
+        <v>28.88119003090779</v>
       </c>
       <c r="C19">
-        <v>21.22155623567402</v>
+        <v>20.97503769181943</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.91251403698476</v>
+        <v>17.05198832177419</v>
       </c>
       <c r="F19">
-        <v>78.14597897252852</v>
+        <v>78.02002255181904</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.989668363045465</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.91316564381271</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>43.90440685240998</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.62996238361221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15.51533416929614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.81525436174788</v>
+        <v>29.58359654992489</v>
       </c>
       <c r="C20">
-        <v>21.74854632645923</v>
+        <v>21.49757305030103</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.32815419874001</v>
+        <v>17.46417751600545</v>
       </c>
       <c r="F20">
-        <v>80.04618232719272</v>
+        <v>79.91119874260217</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.98177446043412</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.92952499225545</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>44.91321350621904</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.021883351706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.90514421561163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.19248195616738</v>
+        <v>31.94062791480331</v>
       </c>
       <c r="C21">
-        <v>23.52624219223685</v>
+        <v>23.25942952076137</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.75027024520414</v>
+        <v>18.87427124644178</v>
       </c>
       <c r="F21">
-        <v>86.46773738315052</v>
+        <v>86.29937788532986</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.954447516507783</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.39287866923203</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>48.34944330695465</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.37438019751069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>17.24933485350986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.75772312425482</v>
+        <v>33.49166620096915</v>
       </c>
       <c r="C22">
-        <v>24.70488094266145</v>
+        <v>24.42669053841325</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.71145976166028</v>
+        <v>19.82692866682841</v>
       </c>
       <c r="F22">
-        <v>90.73588167415865</v>
+        <v>90.54221757139868</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.935743328665558</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.71925720666325</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>50.65596691769604</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.29893595342215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>18.16715685698171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.92025903188786</v>
+        <v>32.66190944715078</v>
       </c>
       <c r="C23">
-        <v>24.07340261278984</v>
+        <v>23.80140889141438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.19457060421236</v>
+        <v>19.31468407640159</v>
       </c>
       <c r="F23">
-        <v>88.44802163625984</v>
+        <v>88.26828256106829</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.945821988452258</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.46981064216886</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>49.41737922612218</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.80068718955586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>17.67265452699831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.77640038096163</v>
+        <v>29.54506227202685</v>
       </c>
       <c r="C24">
-        <v>21.71960453124089</v>
+        <v>21.46887841601754</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.30525938994517</v>
+        <v>17.44147312066039</v>
       </c>
       <c r="F24">
-        <v>79.94178476588772</v>
+        <v>79.8073059649449</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.982210458993568</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.87358494461436</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>44.85769315713237</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.00025618105995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.88363675474055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35788593885092</v>
+        <v>26.15388701548126</v>
       </c>
       <c r="C25">
-        <v>19.18568013853604</v>
+        <v>18.95561113485603</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.33067011551662</v>
+        <v>15.48335700409243</v>
       </c>
       <c r="F25">
-        <v>70.81994474384074</v>
+        <v>70.72613225717876</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.019262040372065</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.03171246169225</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>40.05073292902635</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.1515621081591</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14.04387553540128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.57416376968639</v>
+        <v>24.11542759337662</v>
       </c>
       <c r="C2">
-        <v>17.05726901268598</v>
+        <v>12.80035446113819</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.04281200464061</v>
+        <v>6.428436721125315</v>
       </c>
       <c r="F2">
-        <v>63.89354161858824</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.045747832843773</v>
+        <v>2.094135544356647</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.49689545050705</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.388976292603687</v>
       </c>
       <c r="M2">
-        <v>12.70763869962507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>35.73860147336021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.7544544641388</v>
+        <v>22.47341897368956</v>
       </c>
       <c r="C3">
-        <v>15.72369420680762</v>
+        <v>11.96496014678655</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.05036603352371</v>
+        <v>6.416628172282139</v>
       </c>
       <c r="F3">
-        <v>59.24379886842537</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.063575177382287</v>
+        <v>2.107141017803959</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>34.04449145656348</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.144751270863068</v>
       </c>
       <c r="M3">
-        <v>11.79406025118187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>34.20660257005729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.59701700332646</v>
+        <v>21.47631681404792</v>
       </c>
       <c r="C4">
-        <v>14.87733764777233</v>
+        <v>11.42909159791774</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.42904496741979</v>
+        <v>6.412261168177108</v>
       </c>
       <c r="F4">
-        <v>56.3207595711695</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.074554199605751</v>
+        <v>2.11526017604136</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.50918620425958</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.997267674306749</v>
       </c>
       <c r="M4">
-        <v>11.22446535386246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>33.27412284356088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.11465928071242</v>
+        <v>21.06183272647058</v>
       </c>
       <c r="C5">
-        <v>14.52497541285464</v>
+        <v>11.20484714464349</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.17237899085524</v>
+        <v>6.411172651672736</v>
       </c>
       <c r="F5">
-        <v>55.10836985459638</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.079048124194553</v>
+        <v>2.118606727401084</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.8752474911037</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.937822329786078</v>
       </c>
       <c r="M5">
-        <v>10.98960399970435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>32.89629354685368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.03390261199196</v>
+        <v>20.99252041554273</v>
       </c>
       <c r="C6">
-        <v>14.46600069483281</v>
+        <v>11.16725407389676</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.12953825626026</v>
+        <v>6.411032691566374</v>
       </c>
       <c r="F6">
-        <v>54.9057350870104</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.079795844766267</v>
+        <v>2.119164828464639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.76946102040497</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.927992186095476</v>
       </c>
       <c r="M6">
-        <v>10.9504247203261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>32.83369033566704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.59055577633638</v>
+        <v>21.47075974744916</v>
       </c>
       <c r="C7">
-        <v>14.8726164524133</v>
+        <v>11.42609126629547</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.42559808695222</v>
+        <v>6.412243733230754</v>
       </c>
       <c r="F7">
-        <v>56.30449650103887</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.074614711650714</v>
+        <v>2.115305149845469</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.50067121923092</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.996463269827021</v>
       </c>
       <c r="M7">
-        <v>11.22130973601488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>33.26901835506503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.95466128412496</v>
+        <v>23.53043553860716</v>
       </c>
       <c r="C8">
-        <v>16.60281580476297</v>
+        <v>12.51699873972813</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.70278473475818</v>
+        <v>6.423745460025841</v>
       </c>
       <c r="F8">
-        <v>62.29447062671195</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.051895422152499</v>
+        <v>2.098594794217507</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.65683212517132</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.304272383992067</v>
       </c>
       <c r="M8">
-        <v>12.39405610496806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>35.20871515759023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.30592441323943</v>
+        <v>27.58286869153169</v>
       </c>
       <c r="C9">
-        <v>19.80690239889541</v>
+        <v>14.48038443692898</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.13998548732702</v>
+        <v>6.470847685328748</v>
       </c>
       <c r="F9">
-        <v>73.79792715576738</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.006964306990476</v>
+        <v>2.066668064397008</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.66641018958146</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.926522294407235</v>
       </c>
       <c r="M9">
-        <v>14.65759284245899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>39.07682380285206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.38986215265297</v>
+        <v>30.35655167539446</v>
       </c>
       <c r="C10">
-        <v>22.09873778036894</v>
+        <v>15.82613342641735</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.94172967857849</v>
+        <v>6.522989170223102</v>
       </c>
       <c r="F10">
-        <v>82.08887727483319</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>1.972573155161575</v>
+        <v>2.043373503072971</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.07965565116536</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.394762722169048</v>
       </c>
       <c r="M10">
-        <v>16.35850329344179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>41.9651605743445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.78757997751818</v>
+        <v>31.57933738274851</v>
       </c>
       <c r="C11">
-        <v>23.14460674797103</v>
+        <v>16.4203038592095</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.7813812201478</v>
+        <v>6.551175645883271</v>
       </c>
       <c r="F11">
-        <v>85.88248732350696</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.956261706849397</v>
+        <v>2.032716982014827</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>48.12385650483267</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.610476968384312</v>
       </c>
       <c r="M11">
-        <v>17.16026540922367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.29338970962652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.31839198680181</v>
+        <v>32.03730520973711</v>
       </c>
       <c r="C12">
-        <v>23.54310991780931</v>
+        <v>16.64301312421985</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.10438322175388</v>
+        <v>6.562555318669638</v>
       </c>
       <c r="F12">
-        <v>87.32969884621282</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.949945594526452</v>
+        <v>2.028663583298309</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>48.90776994607542</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.692605206847821</v>
       </c>
       <c r="M12">
-        <v>17.4703048104715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>43.79896655871966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.20395967883449</v>
+        <v>31.93888982114408</v>
       </c>
       <c r="C13">
-        <v>23.45713701343699</v>
+        <v>16.59514516720636</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.03455125358849</v>
+        <v>6.560071986251353</v>
       </c>
       <c r="F13">
-        <v>87.01739342955133</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.951312932870498</v>
+        <v>2.029537523471234</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>48.73841230811829</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.67489664346714</v>
       </c>
       <c r="M13">
-        <v>17.40319848302827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>43.68995488635765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.83120385168436</v>
+        <v>31.61711298141814</v>
       </c>
       <c r="C14">
-        <v>23.17732887607631</v>
+        <v>16.43867026227703</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.80783838788564</v>
+        <v>6.55209731005363</v>
       </c>
       <c r="F14">
-        <v>86.00128424047927</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.955745170700472</v>
+        <v>2.032383927038407</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>48.18812056441516</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.617224455384093</v>
       </c>
       <c r="M14">
-        <v>17.1856267843547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.33492778793728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.60315926701512</v>
+        <v>31.41937194109098</v>
       </c>
       <c r="C15">
-        <v>23.00632819919879</v>
+        <v>16.34253648302342</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.66970502088621</v>
+        <v>6.547306587872029</v>
       </c>
       <c r="F15">
-        <v>85.38054298371787</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.958440361306306</v>
+        <v>2.034124779636881</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>47.85249353193432</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.581958137080852</v>
       </c>
       <c r="M15">
-        <v>17.05328117619928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.11782222686152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.29859169539025</v>
+        <v>30.27589857069236</v>
       </c>
       <c r="C16">
-        <v>22.03060922970181</v>
+        <v>15.7869649160962</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.88742732170289</v>
+        <v>6.52124225092674</v>
       </c>
       <c r="F16">
-        <v>81.84198207539592</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.97362233108735</v>
+        <v>2.044067960512114</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>45.94715224108156</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.380723687524732</v>
       </c>
       <c r="M16">
-        <v>16.30685665576322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.87868820053639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.49835626084925</v>
+        <v>29.56477925811404</v>
       </c>
       <c r="C17">
-        <v>21.43410312972625</v>
+        <v>15.44172243652836</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.41396833300965</v>
+        <v>6.506439352685245</v>
       </c>
       <c r="F17">
-        <v>79.68140364611106</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>1.98273845882837</v>
+        <v>2.050146263815009</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.79042660274448</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.257995959326033</v>
       </c>
       <c r="M17">
-        <v>15.85758759490753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>41.12251673666593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.03742452561891</v>
+        <v>29.15205649697716</v>
       </c>
       <c r="C18">
-        <v>21.09117114164519</v>
+        <v>15.24143127128052</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.14336767830103</v>
+        <v>6.498341290649592</v>
       </c>
       <c r="F18">
-        <v>78.44020223555221</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>1.987922312270846</v>
+        <v>2.053637370507147</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.12820563190036</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.187656641087891</v>
       </c>
       <c r="M18">
-        <v>15.60163438665238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>40.6888906722285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.88119003090779</v>
+        <v>29.01166459198588</v>
       </c>
       <c r="C19">
-        <v>20.97503769181943</v>
+        <v>15.17331295643854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.05198832177419</v>
+        <v>6.49566910456655</v>
       </c>
       <c r="F19">
-        <v>78.02002255181904</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>1.989668363045465</v>
+        <v>2.054818807298753</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.90440685240998</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.163882792124333</v>
       </c>
       <c r="M19">
-        <v>15.51533416929614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.54228257136241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.58359654992489</v>
+        <v>29.64085911940512</v>
       </c>
       <c r="C20">
-        <v>21.49757305030103</v>
+        <v>15.47864976507816</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.46417751600545</v>
+        <v>6.507971640813165</v>
       </c>
       <c r="F20">
-        <v>79.91119874260217</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>1.98177446043412</v>
+        <v>2.049499795971419</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.91321350621904</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.271034321432669</v>
       </c>
       <c r="M20">
-        <v>15.90514421561163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>41.20287417200279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.94062791480331</v>
+        <v>31.71175964092036</v>
       </c>
       <c r="C21">
-        <v>23.25942952076137</v>
+        <v>16.48469021650601</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.87427124644178</v>
+        <v>6.554419949832608</v>
       </c>
       <c r="F21">
-        <v>86.29937788532986</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.954447516507783</v>
+        <v>2.031548441084647</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>48.34944330695465</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.634151630349793</v>
       </c>
       <c r="M21">
-        <v>17.24933485350986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.43913182954341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.49166620096915</v>
+        <v>33.03595584575312</v>
       </c>
       <c r="C22">
-        <v>24.42669053841325</v>
+        <v>17.12902883819515</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.82692866682841</v>
+        <v>6.58892872179129</v>
       </c>
       <c r="F22">
-        <v>90.54221757139868</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.935743328665558</v>
+        <v>2.019705633876779</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>50.65596691769604</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.874090261195242</v>
       </c>
       <c r="M22">
-        <v>18.16715685698171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>44.91623964554996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.66190944715078</v>
+        <v>32.33168227343928</v>
       </c>
       <c r="C23">
-        <v>23.80140889141438</v>
+        <v>16.78622349149768</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.31468407640159</v>
+        <v>6.5701072618307</v>
       </c>
       <c r="F23">
-        <v>88.26828256106829</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.945821988452258</v>
+        <v>2.026040031914791</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49.41737922612218</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.745766186426982</v>
       </c>
       <c r="M23">
-        <v>17.67265452699831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>44.1262208875606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.54506227202685</v>
+        <v>29.60647557171574</v>
       </c>
       <c r="C24">
-        <v>21.46887841601754</v>
+        <v>15.46196056905807</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.44147312066039</v>
+        <v>6.507277613727985</v>
       </c>
       <c r="F24">
-        <v>79.8073059649449</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>1.982210458993568</v>
+        <v>2.049792073958627</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.85769315713237</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.265139000946164</v>
       </c>
       <c r="M24">
-        <v>15.88363675474055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>41.16654116621925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.15388701548126</v>
+        <v>26.5238489495168</v>
       </c>
       <c r="C25">
-        <v>18.95561113485603</v>
+        <v>13.9670998770749</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.48335700409243</v>
+        <v>6.455228285387622</v>
       </c>
       <c r="F25">
-        <v>70.72613225717876</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.019262040372065</v>
+        <v>2.075248283802832</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.05073292902635</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.756277249732046</v>
       </c>
       <c r="M25">
-        <v>14.04387553540128</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>38.02318132471354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.11542759337662</v>
+        <v>12.52608286877667</v>
       </c>
       <c r="C2">
-        <v>12.80035446113819</v>
+        <v>6.277469955894908</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.428436721125315</v>
+        <v>8.122956918791042</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>31.49865159335204</v>
       </c>
       <c r="G2">
-        <v>2.094135544356647</v>
+        <v>36.81866538787497</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.59772676518247</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.93404470522972</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.350616951297799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.46875378852278</v>
       </c>
       <c r="L2">
-        <v>7.388976292603687</v>
+        <v>7.227120458902562</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.17825361058427</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>35.73860147336021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47341897368956</v>
+        <v>11.72131439516942</v>
       </c>
       <c r="C3">
-        <v>11.96496014678655</v>
+        <v>6.084968415643885</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.416628172282139</v>
+        <v>8.04573335337823</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>31.01208275703058</v>
       </c>
       <c r="G3">
-        <v>2.107141017803959</v>
+        <v>36.50431979178478</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.64436586547454</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.00934603311147</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.370068911516872</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.831566989448651</v>
       </c>
       <c r="L3">
-        <v>7.144751270863068</v>
+        <v>7.094919695733025</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.851774936620002</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>34.20660257005729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.47631681404792</v>
+        <v>11.22683880403518</v>
       </c>
       <c r="C4">
-        <v>11.42909159791774</v>
+        <v>5.963665328038158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.412261168177108</v>
+        <v>8.000705572058747</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>30.73124841512633</v>
       </c>
       <c r="G4">
-        <v>2.11526017604136</v>
+        <v>36.34125171577718</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.67998069216296</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.06833399928055</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.382245635031972</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.419531037778258</v>
       </c>
       <c r="L4">
-        <v>6.997267674306749</v>
+        <v>7.015356177734181</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.65000455341081</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>33.27412284356088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.06183272647058</v>
+        <v>11.01993513966386</v>
       </c>
       <c r="C5">
-        <v>11.20484714464349</v>
+        <v>5.913472103833298</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.411172651672736</v>
+        <v>7.98296396605205</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>30.62132194862449</v>
       </c>
       <c r="G5">
-        <v>2.118606727401084</v>
+        <v>36.28211446733766</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.69618893232719</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.09546208378563</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.387270158381778</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.246403138500705</v>
       </c>
       <c r="L5">
-        <v>6.937822329786078</v>
+        <v>6.983368819728295</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.567568573372393</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.89629354685368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.99252041554273</v>
+        <v>10.98525685657764</v>
       </c>
       <c r="C6">
-        <v>11.16725407389676</v>
+        <v>5.905092233224135</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.411032691566374</v>
+        <v>7.980054872385425</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>30.60334152449115</v>
       </c>
       <c r="G6">
-        <v>2.119164828464639</v>
+        <v>36.27272998716892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.69898095769285</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.10014996776726</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.388108352822718</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.217340650674881</v>
       </c>
       <c r="L6">
-        <v>6.927992186095476</v>
+        <v>6.978084540304384</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.553870857162764</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.83369033566704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.47075974744916</v>
+        <v>11.22407011641445</v>
       </c>
       <c r="C7">
-        <v>11.42609126629547</v>
+        <v>5.962991457914858</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.412243733230754</v>
+        <v>8.000463833729487</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>30.72974762032389</v>
       </c>
       <c r="G7">
-        <v>2.115305149845469</v>
+        <v>36.34042484875703</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.68019249702213</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.06868749830953</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.382313139959778</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.417217287296447</v>
       </c>
       <c r="L7">
-        <v>6.996463269827021</v>
+        <v>7.014922981317914</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.648893494567101</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>33.26901835506503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53043553860716</v>
+        <v>12.23678347302037</v>
       </c>
       <c r="C8">
-        <v>12.51699873972813</v>
+        <v>6.211750900602115</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.423745460025841</v>
+        <v>8.095839197494206</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>31.32717225992051</v>
       </c>
       <c r="G8">
-        <v>2.098594794217507</v>
+        <v>36.70393993296948</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.61232294630255</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.95729040964258</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.357277944519168</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.25337182702123</v>
       </c>
       <c r="L8">
-        <v>7.304272383992067</v>
+        <v>7.181222493631882</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.06602328090648</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>35.20871515759023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.58286869153169</v>
+        <v>14.20901939961491</v>
       </c>
       <c r="C9">
-        <v>14.48038443692898</v>
+        <v>6.674255776722481</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.470847685328748</v>
+        <v>8.301468411082334</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>32.64003582131935</v>
       </c>
       <c r="G9">
-        <v>2.066668064397008</v>
+        <v>37.66324058995261</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.53739282983984</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>20.84544966799379</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.309851133805543</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.7281229695374</v>
       </c>
       <c r="L9">
-        <v>7.926522294407235</v>
+        <v>7.51874044363315</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.86894782340418</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>39.07682380285206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.35655167539446</v>
+        <v>15.51515831434121</v>
       </c>
       <c r="C10">
-        <v>15.82613342641735</v>
+        <v>6.998050476224861</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.522989170223102</v>
+        <v>8.463385025626105</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>33.6891439857306</v>
       </c>
       <c r="G10">
-        <v>2.043373503072971</v>
+        <v>38.52944720174062</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.52180869772427</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.83600501359594</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.275749317440549</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.71188214658668</v>
       </c>
       <c r="L10">
-        <v>8.394762722169048</v>
+        <v>7.771903782769642</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.44415083399444</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.9651605743445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.57933738274851</v>
+        <v>16.07911804596034</v>
       </c>
       <c r="C11">
-        <v>16.4203038592095</v>
+        <v>7.141842258593788</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.551175645883271</v>
+        <v>8.539286356692628</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>34.18435144301771</v>
       </c>
       <c r="G11">
-        <v>2.032716982014827</v>
+        <v>38.96068210868329</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.52420669557245</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.84925178757764</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.260330602269438</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.13809147197726</v>
       </c>
       <c r="L11">
-        <v>8.610476968384312</v>
+        <v>7.887851673283637</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.70167779217841</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.29338970962652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.03730520973711</v>
+        <v>16.28839709748708</v>
       </c>
       <c r="C12">
-        <v>16.64301312421985</v>
+        <v>7.195790933883943</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.562555318669638</v>
+        <v>8.568341163851931</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>34.37441962839659</v>
       </c>
       <c r="G12">
-        <v>2.028663583298309</v>
+        <v>39.12948601702237</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.52655860880411</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.85694116739899</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.254499519708796</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.29645614985191</v>
       </c>
       <c r="L12">
-        <v>8.692605206847821</v>
+        <v>7.93184373062627</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.798536431954</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>43.79896655871966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.93888982114408</v>
+        <v>16.24351442991408</v>
       </c>
       <c r="C13">
-        <v>16.59514516720636</v>
+        <v>7.184194380356952</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.560071986251353</v>
+        <v>8.562069946504893</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>34.33337248416175</v>
       </c>
       <c r="G13">
-        <v>2.029537523471234</v>
+        <v>39.09288384411046</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.52598656502734</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.85516378646932</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.255755107113401</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.26248373407567</v>
       </c>
       <c r="L13">
-        <v>8.67489664346714</v>
+        <v>7.922365880938827</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.77770654541242</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>43.68995488635765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.61711298141814</v>
+        <v>16.09642096718441</v>
       </c>
       <c r="C14">
-        <v>16.43867026227703</v>
+        <v>7.146290686929185</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.55209731005363</v>
+        <v>8.541670505122699</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>34.1999376941443</v>
       </c>
       <c r="G14">
-        <v>2.032383927038407</v>
+        <v>38.97445851808408</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.52437078472331</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.84982994508974</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.259850757985131</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.15118077976301</v>
       </c>
       <c r="L14">
-        <v>8.617224455384093</v>
+        <v>7.891469369581644</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.70966000603912</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.33492778793728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.41937194109098</v>
+        <v>16.00576649734131</v>
       </c>
       <c r="C15">
-        <v>16.34253648302342</v>
+        <v>7.123008311357223</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.547306587872029</v>
+        <v>8.529215673041293</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>34.11853522318853</v>
       </c>
       <c r="G15">
-        <v>2.034124779636881</v>
+        <v>38.90264096028596</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.52357152097598</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.84691548042575</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.262360274427698</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.08261077091292</v>
       </c>
       <c r="L15">
-        <v>8.581958137080852</v>
+        <v>7.872554672635955</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.66789163147055</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.11782222686152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.27589857069236</v>
+        <v>15.47769972443219</v>
       </c>
       <c r="C16">
-        <v>15.7869649160962</v>
+        <v>6.988582882376431</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.52124225092674</v>
+        <v>8.458468990509026</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>33.65713904522099</v>
       </c>
       <c r="G16">
-        <v>2.044067960512114</v>
+        <v>38.50202694574343</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.52184962112664</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.83550506622528</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.27675837092432</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.68360224494732</v>
       </c>
       <c r="L16">
-        <v>8.380723687524732</v>
+        <v>7.764339667688944</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.42723169093455</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.87868820053639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.56477925811404</v>
+        <v>15.14605509717049</v>
       </c>
       <c r="C17">
-        <v>15.44172243652836</v>
+        <v>6.90521961051206</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.506439352685245</v>
+        <v>8.415635821107983</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>33.37865930390552</v>
       </c>
       <c r="G17">
-        <v>2.050146263815009</v>
+        <v>38.26590306792369</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.5232788268346</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.8331038561145</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.285611249455893</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.43338730684772</v>
       </c>
       <c r="L17">
-        <v>8.257995959326033</v>
+        <v>7.698133499928482</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.27848463950121</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>41.12251673666593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.15205649697716</v>
+        <v>14.95245445761868</v>
       </c>
       <c r="C18">
-        <v>15.24143127128052</v>
+        <v>6.856941068170125</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.498341290649592</v>
+        <v>8.391211196827236</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>33.22017812211653</v>
       </c>
       <c r="G18">
-        <v>2.053637370507147</v>
+        <v>38.13358292134839</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.52498890331045</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.83336469389186</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.290712456449818</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.28746239497275</v>
       </c>
       <c r="L18">
-        <v>8.187656641087891</v>
+        <v>7.660128639892084</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.19254328833714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>40.6888906722285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.01166459198588</v>
+        <v>14.88641365830471</v>
       </c>
       <c r="C19">
-        <v>15.17331295643854</v>
+        <v>6.840538091061299</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.49566910456655</v>
+        <v>8.382978142041161</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>33.16681113842886</v>
       </c>
       <c r="G19">
-        <v>2.054818807298753</v>
+        <v>38.08937646495467</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.52571805421752</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.83373051236842</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.292441401229362</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.23770897367411</v>
       </c>
       <c r="L19">
-        <v>8.163882792124333</v>
+        <v>7.647274631050586</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.16338093169107</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40.54228257136241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.64085911940512</v>
+        <v>15.18165347723913</v>
       </c>
       <c r="C20">
-        <v>15.47864976507816</v>
+        <v>6.914127948245144</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.507971640813165</v>
+        <v>8.420173630377946</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>33.40812902396789</v>
       </c>
       <c r="G20">
-        <v>2.049499795971419</v>
+        <v>38.29067628606324</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.52303421096661</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.83318845944326</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.284667927798859</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.46023070679519</v>
       </c>
       <c r="L20">
-        <v>8.271034321432669</v>
+        <v>7.705173684892596</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.29435948021387</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>41.20287417200279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.71175964092036</v>
+        <v>16.13974152586973</v>
       </c>
       <c r="C21">
-        <v>16.48469021650601</v>
+        <v>7.15743751318208</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.554419949832608</v>
+        <v>8.547653910894713</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>34.23906197882542</v>
       </c>
       <c r="G21">
-        <v>2.031548441084647</v>
+        <v>39.0090923042997</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.52480554272986</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.85132285271862</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.258647608109221</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.1839551436694</v>
       </c>
       <c r="L21">
-        <v>8.634151630349793</v>
+        <v>7.900542321326218</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.72966534715567</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.43913182954341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.03595584575312</v>
+        <v>16.74099041602852</v>
       </c>
       <c r="C22">
-        <v>17.12902883819515</v>
+        <v>7.313531396977588</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.58892872179129</v>
+        <v>8.632787343233488</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>34.79693768070446</v>
       </c>
       <c r="G22">
-        <v>2.019705633876779</v>
+        <v>39.51077180690084</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.53441830402789</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.8788290188862</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.241683296061614</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.63929978205325</v>
       </c>
       <c r="L22">
-        <v>8.874090261195242</v>
+        <v>8.02871206623665</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.01028534997362</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>44.91623964554996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.33168227343928</v>
+        <v>16.42235068071792</v>
       </c>
       <c r="C23">
-        <v>16.78622349149768</v>
+        <v>7.2304868908475</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.5701072618307</v>
+        <v>8.587186991125261</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>34.49784527739335</v>
       </c>
       <c r="G23">
-        <v>2.026040031914791</v>
+        <v>39.24002410471392</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.52848700667403</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.86266510283386</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.250735764502831</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.39787666713731</v>
       </c>
       <c r="L23">
-        <v>8.745766186426982</v>
+        <v>7.960269530863578</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.86088720546745</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>44.1262208875606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.60647557171574</v>
+        <v>15.16556859230662</v>
       </c>
       <c r="C24">
-        <v>15.46196056905807</v>
+        <v>6.910101584879309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.507277613727985</v>
+        <v>8.418121460785825</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>33.39480071288582</v>
       </c>
       <c r="G24">
-        <v>2.049792073958627</v>
+        <v>38.27946564043593</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.52314204059628</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.83314510924571</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.285094367043128</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.44810126503663</v>
       </c>
       <c r="L24">
-        <v>8.265139000946164</v>
+        <v>7.701990634665836</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.28718378237308</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>41.16654116621925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.5238489495168</v>
+        <v>13.70082342492716</v>
       </c>
       <c r="C25">
-        <v>13.9670998770749</v>
+        <v>6.55192079467275</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.455228285387622</v>
+        <v>8.243898548417157</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>32.26988526678826</v>
       </c>
       <c r="G25">
-        <v>2.075248283802832</v>
+        <v>37.37613434129432</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.55103285072409</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20.86351057228533</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.322529903843444</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.34676802066915</v>
       </c>
       <c r="L25">
-        <v>7.756277249732046</v>
+        <v>7.42639758954413</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.65395814133502</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>38.02318132471354</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.52608286877667</v>
+        <v>13.01552393467109</v>
       </c>
       <c r="C2">
-        <v>6.277469955894908</v>
+        <v>7.105179390761311</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.122956918791042</v>
+        <v>13.99389279407573</v>
       </c>
       <c r="F2">
-        <v>31.49865159335204</v>
+        <v>43.87572200638113</v>
       </c>
       <c r="G2">
-        <v>36.81866538787497</v>
+        <v>48.21658934414275</v>
       </c>
       <c r="H2">
-        <v>12.59772676518247</v>
+        <v>19.22608362126532</v>
       </c>
       <c r="I2">
-        <v>20.93404470522972</v>
+        <v>30.91044953836797</v>
       </c>
       <c r="J2">
-        <v>6.350616951297799</v>
+        <v>9.348973413604547</v>
       </c>
       <c r="K2">
-        <v>10.46875378852278</v>
+        <v>10.35663680561392</v>
       </c>
       <c r="L2">
-        <v>7.227120458902562</v>
+        <v>11.9991077916425</v>
       </c>
       <c r="M2">
-        <v>10.17825361058427</v>
+        <v>15.75078181329377</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.72131439516942</v>
+        <v>12.8493476699279</v>
       </c>
       <c r="C3">
-        <v>6.084968415643885</v>
+        <v>7.043004225082202</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.04573335337823</v>
+        <v>14.00689671416528</v>
       </c>
       <c r="F3">
-        <v>31.01208275703058</v>
+        <v>43.90024702749537</v>
       </c>
       <c r="G3">
-        <v>36.50431979178478</v>
+        <v>48.28310884820019</v>
       </c>
       <c r="H3">
-        <v>12.64436586547454</v>
+        <v>19.27366067972739</v>
       </c>
       <c r="I3">
-        <v>21.00934603311147</v>
+        <v>30.99080627810451</v>
       </c>
       <c r="J3">
-        <v>6.370068911516872</v>
+        <v>9.351635612720786</v>
       </c>
       <c r="K3">
-        <v>9.831566989448651</v>
+        <v>10.24259982112736</v>
       </c>
       <c r="L3">
-        <v>7.094919695733025</v>
+        <v>12.00234146202235</v>
       </c>
       <c r="M3">
-        <v>9.851774936620002</v>
+        <v>15.73012308262406</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22683880403518</v>
+        <v>12.74898027932887</v>
       </c>
       <c r="C4">
-        <v>5.963665328038158</v>
+        <v>7.003759139421257</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.000705572058747</v>
+        <v>14.01634433714003</v>
       </c>
       <c r="F4">
-        <v>30.73124841512633</v>
+        <v>43.9239876190918</v>
       </c>
       <c r="G4">
-        <v>36.34125171577718</v>
+        <v>48.33497924847067</v>
       </c>
       <c r="H4">
-        <v>12.67998069216296</v>
+        <v>19.30563579043943</v>
       </c>
       <c r="I4">
-        <v>21.06833399928055</v>
+        <v>31.04502830305453</v>
       </c>
       <c r="J4">
-        <v>6.382245635031972</v>
+        <v>9.353375771005258</v>
       </c>
       <c r="K4">
-        <v>9.419531037778258</v>
+        <v>10.17407491453793</v>
       </c>
       <c r="L4">
-        <v>7.015356177734181</v>
+        <v>12.00582386276471</v>
       </c>
       <c r="M4">
-        <v>9.65000455341081</v>
+        <v>15.71972584041171</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01993513966386</v>
+        <v>12.7085473150608</v>
       </c>
       <c r="C5">
-        <v>5.913472103833298</v>
+        <v>6.987501914223232</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.98296396605205</v>
+        <v>14.02056302295769</v>
       </c>
       <c r="F5">
-        <v>30.62132194862449</v>
+        <v>43.93584518889106</v>
       </c>
       <c r="G5">
-        <v>36.28211446733766</v>
+        <v>48.35888340501894</v>
       </c>
       <c r="H5">
-        <v>12.69618893232719</v>
+        <v>19.31936031767591</v>
       </c>
       <c r="I5">
-        <v>21.09546208378563</v>
+        <v>31.06835088446623</v>
       </c>
       <c r="J5">
-        <v>6.387270158381778</v>
+        <v>9.354111573219825</v>
       </c>
       <c r="K5">
-        <v>9.246403138500705</v>
+        <v>10.14655703261587</v>
       </c>
       <c r="L5">
-        <v>6.983368819728295</v>
+        <v>12.00762040632106</v>
       </c>
       <c r="M5">
-        <v>9.567568573372393</v>
+        <v>15.71606786571892</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98525685657764</v>
+        <v>12.7018631019317</v>
       </c>
       <c r="C6">
-        <v>5.905092233224135</v>
+        <v>6.984786565426246</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.980054872385425</v>
+        <v>14.02128582332941</v>
       </c>
       <c r="F6">
-        <v>30.60334152449115</v>
+        <v>43.9379459624786</v>
       </c>
       <c r="G6">
-        <v>36.27272998716892</v>
+        <v>48.36301956135396</v>
       </c>
       <c r="H6">
-        <v>12.69898095769285</v>
+        <v>19.32168119738311</v>
       </c>
       <c r="I6">
-        <v>21.10014996776726</v>
+        <v>31.07229763526513</v>
       </c>
       <c r="J6">
-        <v>6.388108352822718</v>
+        <v>9.354235367469363</v>
       </c>
       <c r="K6">
-        <v>9.217340650674881</v>
+        <v>10.14201315167831</v>
       </c>
       <c r="L6">
-        <v>6.978084540304384</v>
+        <v>12.00794154552705</v>
       </c>
       <c r="M6">
-        <v>9.553870857162764</v>
+        <v>15.71549553667141</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22407011641445</v>
+        <v>12.74843302922528</v>
       </c>
       <c r="C7">
-        <v>5.962991457914858</v>
+        <v>7.003540954087469</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.000463833729487</v>
+        <v>14.01639973793718</v>
       </c>
       <c r="F7">
-        <v>30.72974762032389</v>
+        <v>43.92413869600127</v>
       </c>
       <c r="G7">
-        <v>36.34042484875703</v>
+        <v>48.3352904357618</v>
       </c>
       <c r="H7">
-        <v>12.68019249702213</v>
+        <v>19.30581807296493</v>
       </c>
       <c r="I7">
-        <v>21.06868749830953</v>
+        <v>31.04533787436671</v>
       </c>
       <c r="J7">
-        <v>6.382313139959778</v>
+        <v>9.353385586123125</v>
       </c>
       <c r="K7">
-        <v>9.417217287296447</v>
+        <v>10.17370211237997</v>
       </c>
       <c r="L7">
-        <v>7.014922981317914</v>
+        <v>12.00584656205761</v>
       </c>
       <c r="M7">
-        <v>9.648893494567101</v>
+        <v>15.71967415857758</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23678347302037</v>
+        <v>12.9579101355909</v>
       </c>
       <c r="C8">
-        <v>6.211750900602115</v>
+        <v>7.0839659021895</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.095839197494206</v>
+        <v>13.99807334241088</v>
       </c>
       <c r="F8">
-        <v>31.32717225992051</v>
+        <v>43.88237643559481</v>
       </c>
       <c r="G8">
-        <v>36.70393993296948</v>
+        <v>48.23723305587787</v>
       </c>
       <c r="H8">
-        <v>12.61232294630255</v>
+        <v>19.24191465685641</v>
       </c>
       <c r="I8">
-        <v>20.95729040964258</v>
+        <v>30.93714248861972</v>
       </c>
       <c r="J8">
-        <v>6.357277944519168</v>
+        <v>9.349869509629292</v>
       </c>
       <c r="K8">
-        <v>10.25337182702123</v>
+        <v>10.31702542688268</v>
       </c>
       <c r="L8">
-        <v>7.181222493631882</v>
+        <v>11.99991271578018</v>
       </c>
       <c r="M8">
-        <v>10.06602328090648</v>
+        <v>15.74318633868688</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.20901939961491</v>
+        <v>13.37974115185466</v>
       </c>
       <c r="C9">
-        <v>6.674255776722481</v>
+        <v>7.233010281076709</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.301468411082334</v>
+        <v>13.97371012711399</v>
       </c>
       <c r="F9">
-        <v>32.64003582131935</v>
+        <v>43.86934372028408</v>
       </c>
       <c r="G9">
-        <v>37.66324058995261</v>
+        <v>48.13268381110499</v>
       </c>
       <c r="H9">
-        <v>12.53739282983984</v>
+        <v>19.13853201018193</v>
       </c>
       <c r="I9">
-        <v>20.84544966799379</v>
+        <v>30.7637622244255</v>
       </c>
       <c r="J9">
-        <v>6.309851133805543</v>
+        <v>9.34380624546939</v>
       </c>
       <c r="K9">
-        <v>11.7281229695374</v>
+        <v>10.60855382793796</v>
       </c>
       <c r="L9">
-        <v>7.51874044363315</v>
+        <v>12.00010635269356</v>
       </c>
       <c r="M9">
-        <v>10.86894782340418</v>
+        <v>15.80726253230054</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.51515831434121</v>
+        <v>13.69348161179374</v>
       </c>
       <c r="C10">
-        <v>6.998050476224861</v>
+        <v>7.336991188630661</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.463385025626105</v>
+        <v>13.96281921141749</v>
       </c>
       <c r="F10">
-        <v>33.6891439857306</v>
+        <v>43.90166885764146</v>
       </c>
       <c r="G10">
-        <v>38.52944720174062</v>
+        <v>48.10964074784068</v>
       </c>
       <c r="H10">
-        <v>12.52180869772427</v>
+        <v>19.07596250363882</v>
       </c>
       <c r="I10">
-        <v>20.83600501359594</v>
+        <v>30.66009243315521</v>
       </c>
       <c r="J10">
-        <v>6.275749317440549</v>
+        <v>9.339850718219317</v>
       </c>
       <c r="K10">
-        <v>12.71188214658668</v>
+        <v>10.82724254982233</v>
       </c>
       <c r="L10">
-        <v>7.771903782769642</v>
+        <v>12.00739317406243</v>
       </c>
       <c r="M10">
-        <v>11.44415083399444</v>
+        <v>15.86503546056908</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.07911804596034</v>
+        <v>13.83642811837304</v>
       </c>
       <c r="C11">
-        <v>7.141842258593788</v>
+        <v>7.383047322023018</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.539286356692628</v>
+        <v>13.95937566137857</v>
       </c>
       <c r="F11">
-        <v>34.18435144301771</v>
+        <v>43.92543677070553</v>
       </c>
       <c r="G11">
-        <v>38.96068210868329</v>
+        <v>48.11087158480235</v>
       </c>
       <c r="H11">
-        <v>12.52420669557245</v>
+        <v>19.05040757438915</v>
       </c>
       <c r="I11">
-        <v>20.84925178757764</v>
+        <v>30.6180922365556</v>
       </c>
       <c r="J11">
-        <v>6.260330602269438</v>
+        <v>9.338157962531916</v>
       </c>
       <c r="K11">
-        <v>13.13809147197726</v>
+        <v>10.92730580839671</v>
       </c>
       <c r="L11">
-        <v>7.887851673283637</v>
+        <v>12.01224333101194</v>
       </c>
       <c r="M11">
-        <v>11.70167779217841</v>
+        <v>15.89357902502025</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28839709748708</v>
+        <v>13.89054046808256</v>
       </c>
       <c r="C12">
-        <v>7.195790933883943</v>
+        <v>7.400304461132216</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.568341163851931</v>
+        <v>13.9582879265756</v>
       </c>
       <c r="F12">
-        <v>34.37441962839659</v>
+        <v>43.93573553302112</v>
       </c>
       <c r="G12">
-        <v>39.12948601702237</v>
+        <v>48.11302313371439</v>
       </c>
       <c r="H12">
-        <v>12.52655860880411</v>
+        <v>19.04114901770496</v>
       </c>
       <c r="I12">
-        <v>20.85694116739899</v>
+        <v>30.60293080017915</v>
       </c>
       <c r="J12">
-        <v>6.254499519708796</v>
+        <v>9.337532161682658</v>
       </c>
       <c r="K12">
-        <v>13.29645614985191</v>
+        <v>10.96524732199063</v>
       </c>
       <c r="L12">
-        <v>7.93184373062627</v>
+        <v>12.01429918062688</v>
       </c>
       <c r="M12">
-        <v>11.798536431954</v>
+        <v>15.90470731812703</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.24351442991408</v>
+        <v>13.87888801661032</v>
       </c>
       <c r="C13">
-        <v>7.184194380356952</v>
+        <v>7.396596047031406</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.562069946504893</v>
+        <v>13.95851258756132</v>
       </c>
       <c r="F13">
-        <v>34.33337248416175</v>
+        <v>43.93345985319275</v>
       </c>
       <c r="G13">
-        <v>39.09288384411046</v>
+        <v>48.11248479287267</v>
       </c>
       <c r="H13">
-        <v>12.52598656502734</v>
+        <v>19.04312439378441</v>
       </c>
       <c r="I13">
-        <v>20.85516378646932</v>
+        <v>30.60616301823177</v>
       </c>
       <c r="J13">
-        <v>6.255755107113401</v>
+        <v>9.33766626464458</v>
       </c>
       <c r="K13">
-        <v>13.26248373407567</v>
+        <v>10.95707425876668</v>
       </c>
       <c r="L13">
-        <v>7.922365880938827</v>
+        <v>12.01384669386097</v>
       </c>
       <c r="M13">
-        <v>11.77770654541242</v>
+        <v>15.90229652933055</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09642096718441</v>
+        <v>13.84088062827134</v>
       </c>
       <c r="C14">
-        <v>7.146290686929185</v>
+        <v>7.384470775150287</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.541670505122699</v>
+        <v>13.95928184435883</v>
       </c>
       <c r="F14">
-        <v>34.1999376941443</v>
+        <v>43.92625806629721</v>
       </c>
       <c r="G14">
-        <v>38.97445851808408</v>
+        <v>48.11101481279162</v>
       </c>
       <c r="H14">
-        <v>12.52437078472331</v>
+        <v>19.04963747735883</v>
       </c>
       <c r="I14">
-        <v>20.84982994508974</v>
+        <v>30.61682999628038</v>
       </c>
       <c r="J14">
-        <v>6.259850757985131</v>
+        <v>9.338106173420401</v>
       </c>
       <c r="K14">
-        <v>13.15118077976301</v>
+        <v>10.93042647455628</v>
       </c>
       <c r="L14">
-        <v>7.891469369581644</v>
+        <v>12.01240808330142</v>
       </c>
       <c r="M14">
-        <v>11.70966000603912</v>
+        <v>15.89448818848088</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00576649734131</v>
+        <v>13.8175961280606</v>
       </c>
       <c r="C15">
-        <v>7.123008311357223</v>
+        <v>7.377019698360179</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.529215673041293</v>
+        <v>13.9597811701391</v>
       </c>
       <c r="F15">
-        <v>34.11853522318853</v>
+        <v>43.92201568814728</v>
       </c>
       <c r="G15">
-        <v>38.90264096028596</v>
+        <v>48.1103339166573</v>
       </c>
       <c r="H15">
-        <v>12.52357152097598</v>
+        <v>19.05368144493291</v>
       </c>
       <c r="I15">
-        <v>20.84691548042575</v>
+        <v>30.62346063870584</v>
       </c>
       <c r="J15">
-        <v>6.262360274427698</v>
+        <v>9.338377607219266</v>
       </c>
       <c r="K15">
-        <v>13.08261077091292</v>
+        <v>10.91410941967985</v>
       </c>
       <c r="L15">
-        <v>7.872554672635955</v>
+        <v>12.01155539055144</v>
       </c>
       <c r="M15">
-        <v>11.66789163147055</v>
+        <v>15.88974677890622</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.47769972443219</v>
+        <v>13.68413987923924</v>
       </c>
       <c r="C16">
-        <v>6.988582882376431</v>
+        <v>7.333955887824331</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.458468990509026</v>
+        <v>13.96307457307926</v>
       </c>
       <c r="F16">
-        <v>33.65713904522099</v>
+        <v>43.90029754508213</v>
       </c>
       <c r="G16">
-        <v>38.50202694574343</v>
+        <v>48.10979613164703</v>
       </c>
       <c r="H16">
-        <v>12.52184962112664</v>
+        <v>19.0776911293311</v>
       </c>
       <c r="I16">
-        <v>20.83550506622528</v>
+        <v>30.66294117273251</v>
       </c>
       <c r="J16">
-        <v>6.27675837092432</v>
+        <v>9.339963478835562</v>
       </c>
       <c r="K16">
-        <v>12.68360224494732</v>
+        <v>10.82071196759431</v>
       </c>
       <c r="L16">
-        <v>7.764339667688944</v>
+        <v>12.00710696717053</v>
       </c>
       <c r="M16">
-        <v>11.42723169093455</v>
+        <v>15.8632151020283</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.14605509717049</v>
+        <v>13.60228985463707</v>
       </c>
       <c r="C17">
-        <v>6.90521961051206</v>
+        <v>7.307215626885209</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.415635821107983</v>
+        <v>13.96548122963209</v>
       </c>
       <c r="F17">
-        <v>33.37865930390552</v>
+        <v>43.88929226704887</v>
       </c>
       <c r="G17">
-        <v>38.26590306792369</v>
+        <v>48.11246742082949</v>
       </c>
       <c r="H17">
-        <v>12.5232788268346</v>
+        <v>19.09316541545478</v>
       </c>
       <c r="I17">
-        <v>20.8331038561145</v>
+        <v>30.68848358044419</v>
       </c>
       <c r="J17">
-        <v>6.285611249455893</v>
+        <v>9.340963582040599</v>
       </c>
       <c r="K17">
-        <v>12.43338730684772</v>
+        <v>10.76354020890051</v>
       </c>
       <c r="L17">
-        <v>7.698133499928482</v>
+        <v>12.00477014971137</v>
       </c>
       <c r="M17">
-        <v>11.27848463950121</v>
+        <v>15.84751415084876</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.95245445761868</v>
+        <v>13.55523597082742</v>
       </c>
       <c r="C18">
-        <v>6.856941068170125</v>
+        <v>7.291718369402226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.391211196827236</v>
+        <v>13.96700773863386</v>
       </c>
       <c r="F18">
-        <v>33.22017812211653</v>
+        <v>43.8838157334729</v>
       </c>
       <c r="G18">
-        <v>38.13358292134839</v>
+        <v>48.11510638902303</v>
       </c>
       <c r="H18">
-        <v>12.52498890331045</v>
+        <v>19.10233953564725</v>
       </c>
       <c r="I18">
-        <v>20.83336469389186</v>
+        <v>30.70366048891666</v>
       </c>
       <c r="J18">
-        <v>6.290712456449818</v>
+        <v>9.341548859185608</v>
       </c>
       <c r="K18">
-        <v>12.28746239497275</v>
+        <v>10.73071317713231</v>
       </c>
       <c r="L18">
-        <v>7.660128639892084</v>
+        <v>12.00357068900238</v>
       </c>
       <c r="M18">
-        <v>11.19254328833714</v>
+        <v>15.83869669415062</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88641365830471</v>
+        <v>13.53931003380242</v>
       </c>
       <c r="C19">
-        <v>6.840538091061299</v>
+        <v>7.286451306337352</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.382978142041161</v>
+        <v>13.96754905158599</v>
       </c>
       <c r="F19">
-        <v>33.16681113842886</v>
+        <v>43.88210818032615</v>
       </c>
       <c r="G19">
-        <v>38.08937646495467</v>
+        <v>48.11618920313211</v>
       </c>
       <c r="H19">
-        <v>12.52571805421752</v>
+        <v>19.10549273608406</v>
       </c>
       <c r="I19">
-        <v>20.83373051236842</v>
+        <v>30.70888249340375</v>
       </c>
       <c r="J19">
-        <v>6.292441401229362</v>
+        <v>9.341748752899315</v>
       </c>
       <c r="K19">
-        <v>12.23770897367411</v>
+        <v>10.71960927462716</v>
       </c>
       <c r="L19">
-        <v>7.647274631050586</v>
+        <v>12.00318945646975</v>
       </c>
       <c r="M19">
-        <v>11.16338093169107</v>
+        <v>15.83574806552933</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.18165347723913</v>
+        <v>13.6110008074997</v>
       </c>
       <c r="C20">
-        <v>6.914127948245144</v>
+        <v>7.310074310041682</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.420173630377946</v>
+        <v>13.96521032016835</v>
       </c>
       <c r="F20">
-        <v>33.40812902396789</v>
+        <v>43.89037550506108</v>
       </c>
       <c r="G20">
-        <v>38.29067628606324</v>
+        <v>48.11206893973075</v>
       </c>
       <c r="H20">
-        <v>12.52303421096661</v>
+        <v>19.09148981972271</v>
       </c>
       <c r="I20">
-        <v>20.83318845944326</v>
+        <v>30.68571428196768</v>
       </c>
       <c r="J20">
-        <v>6.284667927798859</v>
+        <v>9.34085608070855</v>
       </c>
       <c r="K20">
-        <v>12.46023070679519</v>
+        <v>10.76962062309372</v>
       </c>
       <c r="L20">
-        <v>7.705173684892596</v>
+        <v>12.00500395195392</v>
       </c>
       <c r="M20">
-        <v>11.29435948021387</v>
+        <v>15.84916350808764</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13974152586973</v>
+        <v>13.85204521621245</v>
       </c>
       <c r="C21">
-        <v>7.15743751318208</v>
+        <v>7.388037269931578</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.547653910894713</v>
+        <v>13.95905003376014</v>
       </c>
       <c r="F21">
-        <v>34.23906197882542</v>
+        <v>43.92833821211045</v>
       </c>
       <c r="G21">
-        <v>39.0090923042997</v>
+        <v>48.11140083574765</v>
       </c>
       <c r="H21">
-        <v>12.52480554272986</v>
+        <v>19.04771306522369</v>
       </c>
       <c r="I21">
-        <v>20.85132285271862</v>
+        <v>30.61367666908412</v>
       </c>
       <c r="J21">
-        <v>6.258647608109221</v>
+        <v>9.337976549771298</v>
       </c>
       <c r="K21">
-        <v>13.1839551436694</v>
+        <v>10.93825249173829</v>
       </c>
       <c r="L21">
-        <v>7.900542321326218</v>
+        <v>12.01282470214963</v>
       </c>
       <c r="M21">
-        <v>11.72966534715567</v>
+        <v>15.89677306548236</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.74099041602852</v>
+        <v>14.00945190797498</v>
       </c>
       <c r="C22">
-        <v>7.313531396977588</v>
+        <v>7.437920158299548</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.632787343233488</v>
+        <v>13.95628398649277</v>
       </c>
       <c r="F22">
-        <v>34.79693768070446</v>
+        <v>43.96071396702425</v>
       </c>
       <c r="G22">
-        <v>39.51077180690084</v>
+        <v>48.12078800665008</v>
       </c>
       <c r="H22">
-        <v>12.53441830402789</v>
+        <v>19.02154213488571</v>
       </c>
       <c r="I22">
-        <v>20.8788290188862</v>
+        <v>30.57092792331427</v>
       </c>
       <c r="J22">
-        <v>6.241683296061614</v>
+        <v>9.336183202226591</v>
       </c>
       <c r="K22">
-        <v>13.63929978205325</v>
+        <v>11.04873775081678</v>
       </c>
       <c r="L22">
-        <v>8.02871206623665</v>
+        <v>12.01921287869886</v>
       </c>
       <c r="M22">
-        <v>12.01028534997362</v>
+        <v>15.92974782027374</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42235068071792</v>
+        <v>13.9254692718516</v>
       </c>
       <c r="C23">
-        <v>7.2304868908475</v>
+        <v>7.411396038223034</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.587186991125261</v>
+        <v>13.9576453201688</v>
       </c>
       <c r="F23">
-        <v>34.49784527739335</v>
+        <v>43.94274409340449</v>
       </c>
       <c r="G23">
-        <v>39.24002410471392</v>
+        <v>48.11487895653278</v>
       </c>
       <c r="H23">
-        <v>12.52848700667403</v>
+        <v>19.03528671560947</v>
       </c>
       <c r="I23">
-        <v>20.86266510283386</v>
+        <v>30.59334698923211</v>
       </c>
       <c r="J23">
-        <v>6.250735764502831</v>
+        <v>9.337132280353002</v>
       </c>
       <c r="K23">
-        <v>13.39787666713731</v>
+        <v>10.98975558327928</v>
       </c>
       <c r="L23">
-        <v>7.960269530863578</v>
+        <v>12.01568710343656</v>
       </c>
       <c r="M23">
-        <v>11.86088720546745</v>
+        <v>15.91198047336269</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.16556859230662</v>
+        <v>13.6070625731524</v>
       </c>
       <c r="C24">
-        <v>6.910101584879309</v>
+        <v>7.308782285099954</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.418121460785825</v>
+        <v>13.96533235318868</v>
       </c>
       <c r="F24">
-        <v>33.39480071288582</v>
+        <v>43.88988312336743</v>
       </c>
       <c r="G24">
-        <v>38.27946564043593</v>
+        <v>48.11224565663179</v>
       </c>
       <c r="H24">
-        <v>12.52314204059628</v>
+        <v>19.09224649138014</v>
       </c>
       <c r="I24">
-        <v>20.83314510924571</v>
+        <v>30.68696474855984</v>
       </c>
       <c r="J24">
-        <v>6.285094367043128</v>
+        <v>9.340904649944147</v>
       </c>
       <c r="K24">
-        <v>12.44810126503663</v>
+        <v>10.76687153512928</v>
       </c>
       <c r="L24">
-        <v>7.701990634665836</v>
+        <v>12.00489780128082</v>
       </c>
       <c r="M24">
-        <v>11.28718378237308</v>
+        <v>15.84841718151023</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70082342492716</v>
+        <v>13.26474359345847</v>
       </c>
       <c r="C25">
-        <v>6.55192079467275</v>
+        <v>7.193642701505028</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.243898548417157</v>
+        <v>13.97906660715729</v>
       </c>
       <c r="F25">
-        <v>32.26988526678826</v>
+        <v>43.86550176887806</v>
       </c>
       <c r="G25">
-        <v>37.37613434129432</v>
+        <v>48.15154074717763</v>
       </c>
       <c r="H25">
-        <v>12.55103285072409</v>
+        <v>19.16415011383639</v>
       </c>
       <c r="I25">
-        <v>20.86351057228533</v>
+        <v>30.80650644284534</v>
       </c>
       <c r="J25">
-        <v>6.322529903843444</v>
+        <v>9.345358295001214</v>
       </c>
       <c r="K25">
-        <v>11.34676802066915</v>
+        <v>10.52876009470227</v>
       </c>
       <c r="L25">
-        <v>7.42639758954413</v>
+        <v>11.99879405739892</v>
       </c>
       <c r="M25">
-        <v>10.65395814133502</v>
+        <v>15.78802990373497</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.01552393467109</v>
+        <v>12.52608286877661</v>
       </c>
       <c r="C2">
-        <v>7.105179390761311</v>
+        <v>6.277469955894885</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.99389279407573</v>
+        <v>8.122956918790978</v>
       </c>
       <c r="F2">
-        <v>43.87572200638113</v>
+        <v>31.49865159335232</v>
       </c>
       <c r="G2">
-        <v>48.21658934414275</v>
+        <v>36.81866538787554</v>
       </c>
       <c r="H2">
-        <v>19.22608362126532</v>
+        <v>12.59772676518261</v>
       </c>
       <c r="I2">
-        <v>30.91044953836797</v>
+        <v>20.93404470523001</v>
       </c>
       <c r="J2">
-        <v>9.348973413604547</v>
+        <v>6.350616951297964</v>
       </c>
       <c r="K2">
-        <v>10.35663680561392</v>
+        <v>10.4687537885227</v>
       </c>
       <c r="L2">
-        <v>11.9991077916425</v>
+        <v>7.227120458902527</v>
       </c>
       <c r="M2">
-        <v>15.75078181329377</v>
+        <v>10.17825361058428</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.8493476699279</v>
+        <v>11.7213143951694</v>
       </c>
       <c r="C3">
-        <v>7.043004225082202</v>
+        <v>6.084968415643885</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.00689671416528</v>
+        <v>8.045733353378299</v>
       </c>
       <c r="F3">
-        <v>43.90024702749537</v>
+        <v>31.0120827570303</v>
       </c>
       <c r="G3">
-        <v>48.28310884820019</v>
+        <v>36.50431979178405</v>
       </c>
       <c r="H3">
-        <v>19.27366067972739</v>
+        <v>12.64436586547432</v>
       </c>
       <c r="I3">
-        <v>30.99080627810451</v>
+        <v>21.00934603311107</v>
       </c>
       <c r="J3">
-        <v>9.351635612720786</v>
+        <v>6.370068911516736</v>
       </c>
       <c r="K3">
-        <v>10.24259982112736</v>
+        <v>9.83156698944871</v>
       </c>
       <c r="L3">
-        <v>12.00234146202235</v>
+        <v>7.094919695733076</v>
       </c>
       <c r="M3">
-        <v>15.73012308262406</v>
+        <v>9.851774936619991</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.74898027932887</v>
+        <v>11.22683880403523</v>
       </c>
       <c r="C4">
-        <v>7.003759139421257</v>
+        <v>5.963665328038378</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.01634433714003</v>
+        <v>8.000705572058635</v>
       </c>
       <c r="F4">
-        <v>43.9239876190918</v>
+        <v>30.7312484151263</v>
       </c>
       <c r="G4">
-        <v>48.33497924847067</v>
+        <v>36.3412517157771</v>
       </c>
       <c r="H4">
-        <v>19.30563579043943</v>
+        <v>12.67998069216297</v>
       </c>
       <c r="I4">
-        <v>31.04502830305453</v>
+        <v>21.0683339992805</v>
       </c>
       <c r="J4">
-        <v>9.353375771005258</v>
+        <v>6.382245635031837</v>
       </c>
       <c r="K4">
-        <v>10.17407491453793</v>
+        <v>9.419531037778235</v>
       </c>
       <c r="L4">
-        <v>12.00582386276471</v>
+        <v>7.015356177734075</v>
       </c>
       <c r="M4">
-        <v>15.71972584041171</v>
+        <v>9.650004553410763</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.7085473150608</v>
+        <v>11.01993513966383</v>
       </c>
       <c r="C5">
-        <v>6.987501914223232</v>
+        <v>5.913472103833393</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.02056302295769</v>
+        <v>7.982963966052105</v>
       </c>
       <c r="F5">
-        <v>43.93584518889106</v>
+        <v>30.62132194862434</v>
       </c>
       <c r="G5">
-        <v>48.35888340501894</v>
+        <v>36.28211446733744</v>
       </c>
       <c r="H5">
-        <v>19.31936031767591</v>
+        <v>12.69618893232707</v>
       </c>
       <c r="I5">
-        <v>31.06835088446623</v>
+        <v>21.09546208378546</v>
       </c>
       <c r="J5">
-        <v>9.354111573219825</v>
+        <v>6.38727015838171</v>
       </c>
       <c r="K5">
-        <v>10.14655703261587</v>
+        <v>9.24640313850076</v>
       </c>
       <c r="L5">
-        <v>12.00762040632106</v>
+        <v>6.983368819728303</v>
       </c>
       <c r="M5">
-        <v>15.71606786571892</v>
+        <v>9.567568573372371</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.7018631019317</v>
+        <v>10.98525685657768</v>
       </c>
       <c r="C6">
-        <v>6.984786565426246</v>
+        <v>5.905092233224362</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.02128582332941</v>
+        <v>7.980054872385302</v>
       </c>
       <c r="F6">
-        <v>43.9379459624786</v>
+        <v>30.60334152449128</v>
       </c>
       <c r="G6">
-        <v>48.36301956135396</v>
+        <v>36.272729987169</v>
       </c>
       <c r="H6">
-        <v>19.32168119738311</v>
+        <v>12.69898095769303</v>
       </c>
       <c r="I6">
-        <v>31.07229763526513</v>
+        <v>21.10014996776746</v>
       </c>
       <c r="J6">
-        <v>9.354235367469363</v>
+        <v>6.388108352822716</v>
       </c>
       <c r="K6">
-        <v>10.14201315167831</v>
+        <v>9.217340650674831</v>
       </c>
       <c r="L6">
-        <v>12.00794154552705</v>
+        <v>6.978084540304296</v>
       </c>
       <c r="M6">
-        <v>15.71549553667141</v>
+        <v>9.553870857162741</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.74843302922528</v>
+        <v>11.22407011641446</v>
       </c>
       <c r="C7">
-        <v>7.003540954087469</v>
+        <v>5.962991457914732</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.01639973793718</v>
+        <v>8.000463833729482</v>
       </c>
       <c r="F7">
-        <v>43.92413869600127</v>
+        <v>30.72974762032393</v>
       </c>
       <c r="G7">
-        <v>48.3352904357618</v>
+        <v>36.34042484875704</v>
       </c>
       <c r="H7">
-        <v>19.30581807296493</v>
+        <v>12.68019249702212</v>
       </c>
       <c r="I7">
-        <v>31.04533787436671</v>
+        <v>21.06868749830947</v>
       </c>
       <c r="J7">
-        <v>9.353385586123125</v>
+        <v>6.382313139959746</v>
       </c>
       <c r="K7">
-        <v>10.17370211237997</v>
+        <v>9.417217287296452</v>
       </c>
       <c r="L7">
-        <v>12.00584656205761</v>
+        <v>7.014922981317935</v>
       </c>
       <c r="M7">
-        <v>15.71967415857758</v>
+        <v>9.648893494567098</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9579101355909</v>
+        <v>12.23678347302034</v>
       </c>
       <c r="C8">
-        <v>7.0839659021895</v>
+        <v>6.211750900601873</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.99807334241088</v>
+        <v>8.095839197494033</v>
       </c>
       <c r="F8">
-        <v>43.88237643559481</v>
+        <v>31.32717225992051</v>
       </c>
       <c r="G8">
-        <v>48.23723305587787</v>
+        <v>36.70393993296977</v>
       </c>
       <c r="H8">
-        <v>19.24191465685641</v>
+        <v>12.61232294630272</v>
       </c>
       <c r="I8">
-        <v>30.93714248861972</v>
+        <v>20.95729040964272</v>
       </c>
       <c r="J8">
-        <v>9.349869509629292</v>
+        <v>6.357277944519202</v>
       </c>
       <c r="K8">
-        <v>10.31702542688268</v>
+        <v>10.25337182702116</v>
       </c>
       <c r="L8">
-        <v>11.99991271578018</v>
+        <v>7.181222493631807</v>
       </c>
       <c r="M8">
-        <v>15.74318633868688</v>
+        <v>10.06602328090644</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.37974115185466</v>
+        <v>14.20901939961493</v>
       </c>
       <c r="C9">
-        <v>7.233010281076709</v>
+        <v>6.674255776722354</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.97371012711399</v>
+        <v>8.301468411082242</v>
       </c>
       <c r="F9">
-        <v>43.86934372028408</v>
+        <v>32.64003582131922</v>
       </c>
       <c r="G9">
-        <v>48.13268381110499</v>
+        <v>37.66324058995253</v>
       </c>
       <c r="H9">
-        <v>19.13853201018193</v>
+        <v>12.5373928298397</v>
       </c>
       <c r="I9">
-        <v>30.7637622244255</v>
+        <v>20.84544966799368</v>
       </c>
       <c r="J9">
-        <v>9.34380624546939</v>
+        <v>6.309851133805473</v>
       </c>
       <c r="K9">
-        <v>10.60855382793796</v>
+        <v>11.72812296953736</v>
       </c>
       <c r="L9">
-        <v>12.00010635269356</v>
+        <v>7.518740443633087</v>
       </c>
       <c r="M9">
-        <v>15.80726253230054</v>
+        <v>10.86894782340415</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.69348161179374</v>
+        <v>15.51515831434117</v>
       </c>
       <c r="C10">
-        <v>7.336991188630661</v>
+        <v>6.998050476224747</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.96281921141749</v>
+        <v>8.463385025626106</v>
       </c>
       <c r="F10">
-        <v>43.90166885764146</v>
+        <v>33.68914398573067</v>
       </c>
       <c r="G10">
-        <v>48.10964074784068</v>
+        <v>38.52944720174084</v>
       </c>
       <c r="H10">
-        <v>19.07596250363882</v>
+        <v>12.52180869772431</v>
       </c>
       <c r="I10">
-        <v>30.66009243315521</v>
+        <v>20.83600501359606</v>
       </c>
       <c r="J10">
-        <v>9.339850718219317</v>
+        <v>6.275749317440581</v>
       </c>
       <c r="K10">
-        <v>10.82724254982233</v>
+        <v>12.71188214658663</v>
       </c>
       <c r="L10">
-        <v>12.00739317406243</v>
+        <v>7.771903782769632</v>
       </c>
       <c r="M10">
-        <v>15.86503546056908</v>
+        <v>11.44415083399449</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.83642811837304</v>
+        <v>16.07911804596034</v>
       </c>
       <c r="C11">
-        <v>7.383047322023018</v>
+        <v>7.141842258593889</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.95937566137857</v>
+        <v>8.539286356692614</v>
       </c>
       <c r="F11">
-        <v>43.92543677070553</v>
+        <v>34.18435144301783</v>
       </c>
       <c r="G11">
-        <v>48.11087158480235</v>
+        <v>38.96068210868322</v>
       </c>
       <c r="H11">
-        <v>19.05040757438915</v>
+        <v>12.52420669557247</v>
       </c>
       <c r="I11">
-        <v>30.6180922365556</v>
+        <v>20.84925178757772</v>
       </c>
       <c r="J11">
-        <v>9.338157962531916</v>
+        <v>6.260330602269401</v>
       </c>
       <c r="K11">
-        <v>10.92730580839671</v>
+        <v>13.13809147197729</v>
       </c>
       <c r="L11">
-        <v>12.01224333101194</v>
+        <v>7.887851673283622</v>
       </c>
       <c r="M11">
-        <v>15.89357902502025</v>
+        <v>11.7016777921784</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.89054046808256</v>
+        <v>16.28839709748709</v>
       </c>
       <c r="C12">
-        <v>7.400304461132216</v>
+        <v>7.195790933883954</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.9582879265756</v>
+        <v>8.568341163851882</v>
       </c>
       <c r="F12">
-        <v>43.93573553302112</v>
+        <v>34.37441962839653</v>
       </c>
       <c r="G12">
-        <v>48.11302313371439</v>
+        <v>39.12948601702231</v>
       </c>
       <c r="H12">
-        <v>19.04114901770496</v>
+        <v>12.52655860880411</v>
       </c>
       <c r="I12">
-        <v>30.60293080017915</v>
+        <v>20.85694116739894</v>
       </c>
       <c r="J12">
-        <v>9.337532161682658</v>
+        <v>6.254499519708729</v>
       </c>
       <c r="K12">
-        <v>10.96524732199063</v>
+        <v>13.29645614985193</v>
       </c>
       <c r="L12">
-        <v>12.01429918062688</v>
+        <v>7.931843730626229</v>
       </c>
       <c r="M12">
-        <v>15.90470731812703</v>
+        <v>11.79853643195398</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.87888801661032</v>
+        <v>16.24351442991405</v>
       </c>
       <c r="C13">
-        <v>7.396596047031406</v>
+        <v>7.184194380356831</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.95851258756132</v>
+        <v>8.562069946504884</v>
       </c>
       <c r="F13">
-        <v>43.93345985319275</v>
+        <v>34.33337248416176</v>
       </c>
       <c r="G13">
-        <v>48.11248479287267</v>
+        <v>39.09288384411058</v>
       </c>
       <c r="H13">
-        <v>19.04312439378441</v>
+        <v>12.52598656502734</v>
       </c>
       <c r="I13">
-        <v>30.60616301823177</v>
+        <v>20.85516378646934</v>
       </c>
       <c r="J13">
-        <v>9.33766626464458</v>
+        <v>6.255755107113366</v>
       </c>
       <c r="K13">
-        <v>10.95707425876668</v>
+        <v>13.26248373407565</v>
       </c>
       <c r="L13">
-        <v>12.01384669386097</v>
+        <v>7.922365880938802</v>
       </c>
       <c r="M13">
-        <v>15.90229652933055</v>
+        <v>11.77770654541243</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.84088062827134</v>
+        <v>16.09642096718449</v>
       </c>
       <c r="C14">
-        <v>7.384470775150287</v>
+        <v>7.146290686928943</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.95928184435883</v>
+        <v>8.541670505122797</v>
       </c>
       <c r="F14">
-        <v>43.92625806629721</v>
+        <v>34.19993769414432</v>
       </c>
       <c r="G14">
-        <v>48.11101481279162</v>
+        <v>38.97445851808399</v>
       </c>
       <c r="H14">
-        <v>19.04963747735883</v>
+        <v>12.52437078472332</v>
       </c>
       <c r="I14">
-        <v>30.61682999628038</v>
+        <v>20.84982994508967</v>
       </c>
       <c r="J14">
-        <v>9.338106173420401</v>
+        <v>6.25985075798523</v>
       </c>
       <c r="K14">
-        <v>10.93042647455628</v>
+        <v>13.15118077976306</v>
       </c>
       <c r="L14">
-        <v>12.01240808330142</v>
+        <v>7.891469369581706</v>
       </c>
       <c r="M14">
-        <v>15.89448818848088</v>
+        <v>11.70966000603911</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.8175961280606</v>
+        <v>16.00576649734132</v>
       </c>
       <c r="C15">
-        <v>7.377019698360179</v>
+        <v>7.123008311356998</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.9597811701391</v>
+        <v>8.529215673041247</v>
       </c>
       <c r="F15">
-        <v>43.92201568814728</v>
+        <v>34.11853522318853</v>
       </c>
       <c r="G15">
-        <v>48.1103339166573</v>
+        <v>38.90264096028611</v>
       </c>
       <c r="H15">
-        <v>19.05368144493291</v>
+        <v>12.52357152097597</v>
       </c>
       <c r="I15">
-        <v>30.62346063870584</v>
+        <v>20.84691548042576</v>
       </c>
       <c r="J15">
-        <v>9.338377607219266</v>
+        <v>6.262360274427628</v>
       </c>
       <c r="K15">
-        <v>10.91410941967985</v>
+        <v>13.08261077091288</v>
       </c>
       <c r="L15">
-        <v>12.01155539055144</v>
+        <v>7.872554672635935</v>
       </c>
       <c r="M15">
-        <v>15.88974677890622</v>
+        <v>11.66789163147055</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.68413987923924</v>
+        <v>15.47769972443217</v>
       </c>
       <c r="C16">
-        <v>7.333955887824331</v>
+        <v>6.988582882376651</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.96307457307926</v>
+        <v>8.458468990509118</v>
       </c>
       <c r="F16">
-        <v>43.90029754508213</v>
+        <v>33.65713904522105</v>
       </c>
       <c r="G16">
-        <v>48.10979613164703</v>
+        <v>38.50202694574364</v>
       </c>
       <c r="H16">
-        <v>19.0776911293311</v>
+        <v>12.5218496211266</v>
       </c>
       <c r="I16">
-        <v>30.66294117273251</v>
+        <v>20.83550506622538</v>
       </c>
       <c r="J16">
-        <v>9.339963478835562</v>
+        <v>6.276758370924419</v>
       </c>
       <c r="K16">
-        <v>10.82071196759431</v>
+        <v>12.68360224494736</v>
       </c>
       <c r="L16">
-        <v>12.00710696717053</v>
+        <v>7.764339667688956</v>
       </c>
       <c r="M16">
-        <v>15.8632151020283</v>
+        <v>11.42723169093456</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.60228985463707</v>
+        <v>15.14605509717054</v>
       </c>
       <c r="C17">
-        <v>7.307215626885209</v>
+        <v>6.905219610512031</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.96548122963209</v>
+        <v>8.415635821108081</v>
       </c>
       <c r="F17">
-        <v>43.88929226704887</v>
+        <v>33.37865930390551</v>
       </c>
       <c r="G17">
-        <v>48.11246742082949</v>
+        <v>38.2659030679235</v>
       </c>
       <c r="H17">
-        <v>19.09316541545478</v>
+        <v>12.52327882683459</v>
       </c>
       <c r="I17">
-        <v>30.68848358044419</v>
+        <v>20.8331038561144</v>
       </c>
       <c r="J17">
-        <v>9.340963582040599</v>
+        <v>6.28561124945586</v>
       </c>
       <c r="K17">
-        <v>10.76354020890051</v>
+        <v>12.43338730684778</v>
       </c>
       <c r="L17">
-        <v>12.00477014971137</v>
+        <v>7.698133499928525</v>
       </c>
       <c r="M17">
-        <v>15.84751415084876</v>
+        <v>11.27848463950118</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.55523597082742</v>
+        <v>14.95245445761861</v>
       </c>
       <c r="C18">
-        <v>7.291718369402226</v>
+        <v>6.856941068169988</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.96700773863386</v>
+        <v>8.391211196827333</v>
       </c>
       <c r="F18">
-        <v>43.8838157334729</v>
+        <v>33.22017812211674</v>
       </c>
       <c r="G18">
-        <v>48.11510638902303</v>
+        <v>38.13358292134892</v>
       </c>
       <c r="H18">
-        <v>19.10233953564725</v>
+        <v>12.52498890331052</v>
       </c>
       <c r="I18">
-        <v>30.70366048891666</v>
+        <v>20.83336469389204</v>
       </c>
       <c r="J18">
-        <v>9.341548859185608</v>
+        <v>6.29071245644985</v>
       </c>
       <c r="K18">
-        <v>10.73071317713231</v>
+        <v>12.28746239497266</v>
       </c>
       <c r="L18">
-        <v>12.00357068900238</v>
+        <v>7.66012863989209</v>
       </c>
       <c r="M18">
-        <v>15.83869669415062</v>
+        <v>11.1925432883372</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.53931003380242</v>
+        <v>14.88641365830465</v>
       </c>
       <c r="C19">
-        <v>7.286451306337352</v>
+        <v>6.840538091061409</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.96754905158599</v>
+        <v>8.382978142041111</v>
       </c>
       <c r="F19">
-        <v>43.88210818032615</v>
+        <v>33.16681113842908</v>
       </c>
       <c r="G19">
-        <v>48.11618920313211</v>
+        <v>38.08937646495515</v>
       </c>
       <c r="H19">
-        <v>19.10549273608406</v>
+        <v>12.52571805421764</v>
       </c>
       <c r="I19">
-        <v>30.70888249340375</v>
+        <v>20.83373051236869</v>
       </c>
       <c r="J19">
-        <v>9.341748752899315</v>
+        <v>6.292441401229391</v>
       </c>
       <c r="K19">
-        <v>10.71960927462716</v>
+        <v>12.23770897367408</v>
       </c>
       <c r="L19">
-        <v>12.00318945646975</v>
+        <v>7.647274631050484</v>
       </c>
       <c r="M19">
-        <v>15.83574806552933</v>
+        <v>11.16338093169106</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.6110008074997</v>
+        <v>15.18165347723919</v>
       </c>
       <c r="C20">
-        <v>7.310074310041682</v>
+        <v>6.914127948245029</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.96521032016835</v>
+        <v>8.420173630377944</v>
       </c>
       <c r="F20">
-        <v>43.89037550506108</v>
+        <v>33.40812902396789</v>
       </c>
       <c r="G20">
-        <v>48.11206893973075</v>
+        <v>38.29067628606315</v>
       </c>
       <c r="H20">
-        <v>19.09148981972271</v>
+        <v>12.52303421096661</v>
       </c>
       <c r="I20">
-        <v>30.68571428196768</v>
+        <v>20.83318845944319</v>
       </c>
       <c r="J20">
-        <v>9.34085608070855</v>
+        <v>6.284667927798723</v>
       </c>
       <c r="K20">
-        <v>10.76962062309372</v>
+        <v>12.46023070679525</v>
       </c>
       <c r="L20">
-        <v>12.00500395195392</v>
+        <v>7.705173684892618</v>
       </c>
       <c r="M20">
-        <v>15.84916350808764</v>
+        <v>11.29435948021385</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.85204521621245</v>
+        <v>16.13974152586973</v>
       </c>
       <c r="C21">
-        <v>7.388037269931578</v>
+        <v>7.157437513182055</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.95905003376014</v>
+        <v>8.54765391089458</v>
       </c>
       <c r="F21">
-        <v>43.92833821211045</v>
+        <v>34.23906197882537</v>
       </c>
       <c r="G21">
-        <v>48.11140083574765</v>
+        <v>39.00909230429961</v>
       </c>
       <c r="H21">
-        <v>19.04771306522369</v>
+        <v>12.52480554272988</v>
       </c>
       <c r="I21">
-        <v>30.61367666908412</v>
+        <v>20.85132285271855</v>
       </c>
       <c r="J21">
-        <v>9.337976549771298</v>
+        <v>6.258647608109219</v>
       </c>
       <c r="K21">
-        <v>10.93825249173829</v>
+        <v>13.18395514366938</v>
       </c>
       <c r="L21">
-        <v>12.01282470214963</v>
+        <v>7.900542321326181</v>
       </c>
       <c r="M21">
-        <v>15.89677306548236</v>
+        <v>11.72966534715566</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.00945190797498</v>
+        <v>16.7409904160285</v>
       </c>
       <c r="C22">
-        <v>7.437920158299548</v>
+        <v>7.313531396977689</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.95628398649277</v>
+        <v>8.632787343233531</v>
       </c>
       <c r="F22">
-        <v>43.96071396702425</v>
+        <v>34.7969376807046</v>
       </c>
       <c r="G22">
-        <v>48.12078800665008</v>
+        <v>39.51077180690106</v>
       </c>
       <c r="H22">
-        <v>19.02154213488571</v>
+        <v>12.53441830402796</v>
       </c>
       <c r="I22">
-        <v>30.57092792331427</v>
+        <v>20.87882901888634</v>
       </c>
       <c r="J22">
-        <v>9.336183202226591</v>
+        <v>6.241683296061612</v>
       </c>
       <c r="K22">
-        <v>11.04873775081678</v>
+        <v>13.63929978205322</v>
       </c>
       <c r="L22">
-        <v>12.01921287869886</v>
+        <v>8.028712066236691</v>
       </c>
       <c r="M22">
-        <v>15.92974782027374</v>
+        <v>12.01028534997365</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.9254692718516</v>
+        <v>16.42235068071787</v>
       </c>
       <c r="C23">
-        <v>7.411396038223034</v>
+        <v>7.230486890847386</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.9576453201688</v>
+        <v>8.587186991125268</v>
       </c>
       <c r="F23">
-        <v>43.94274409340449</v>
+        <v>34.49784527739353</v>
       </c>
       <c r="G23">
-        <v>48.11487895653278</v>
+        <v>39.24002410471423</v>
       </c>
       <c r="H23">
-        <v>19.03528671560947</v>
+        <v>12.52848700667417</v>
       </c>
       <c r="I23">
-        <v>30.59334698923211</v>
+        <v>20.86266510283412</v>
       </c>
       <c r="J23">
-        <v>9.337132280353002</v>
+        <v>6.250735764502863</v>
       </c>
       <c r="K23">
-        <v>10.98975558327928</v>
+        <v>13.39787666713727</v>
       </c>
       <c r="L23">
-        <v>12.01568710343656</v>
+        <v>7.960269530863548</v>
       </c>
       <c r="M23">
-        <v>15.91198047336269</v>
+        <v>11.86088720546746</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.6070625731524</v>
+        <v>15.16556859230661</v>
       </c>
       <c r="C24">
-        <v>7.308782285099954</v>
+        <v>6.910101584879522</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.96533235318868</v>
+        <v>8.418121460785875</v>
       </c>
       <c r="F24">
-        <v>43.88988312336743</v>
+        <v>33.39480071288595</v>
       </c>
       <c r="G24">
-        <v>48.11224565663179</v>
+        <v>38.27946564043595</v>
       </c>
       <c r="H24">
-        <v>19.09224649138014</v>
+        <v>12.52314204059632</v>
       </c>
       <c r="I24">
-        <v>30.68696474855984</v>
+        <v>20.8331451092458</v>
       </c>
       <c r="J24">
-        <v>9.340904649944147</v>
+        <v>6.285094367043158</v>
       </c>
       <c r="K24">
-        <v>10.76687153512928</v>
+        <v>12.44810126503664</v>
       </c>
       <c r="L24">
-        <v>12.00489780128082</v>
+        <v>7.701990634665871</v>
       </c>
       <c r="M24">
-        <v>15.84841718151023</v>
+        <v>11.28718378237311</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.26474359345847</v>
+        <v>13.70082342492717</v>
       </c>
       <c r="C25">
-        <v>7.193642701505028</v>
+        <v>6.551920794672722</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.97906660715729</v>
+        <v>8.243898548417153</v>
       </c>
       <c r="F25">
-        <v>43.86550176887806</v>
+        <v>32.26988526678849</v>
       </c>
       <c r="G25">
-        <v>48.15154074717763</v>
+        <v>37.3761343412946</v>
       </c>
       <c r="H25">
-        <v>19.16415011383639</v>
+        <v>12.55103285072421</v>
       </c>
       <c r="I25">
-        <v>30.80650644284534</v>
+        <v>20.86351057228556</v>
       </c>
       <c r="J25">
-        <v>9.345358295001214</v>
+        <v>6.322529903843344</v>
       </c>
       <c r="K25">
-        <v>10.52876009470227</v>
+        <v>11.34676802066917</v>
       </c>
       <c r="L25">
-        <v>11.99879405739892</v>
+        <v>7.426397589544149</v>
       </c>
       <c r="M25">
-        <v>15.78802990373497</v>
+        <v>10.65395814133502</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.52608286877661</v>
+        <v>24.22458531875021</v>
       </c>
       <c r="C2">
-        <v>6.277469955894885</v>
+        <v>14.7878099462253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.122956918790978</v>
+        <v>8.625891823139277</v>
       </c>
       <c r="F2">
-        <v>31.49865159335232</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>36.81866538787554</v>
+        <v>14.57939641687914</v>
       </c>
       <c r="H2">
-        <v>12.59772676518261</v>
+        <v>1.624740631675043</v>
       </c>
       <c r="I2">
-        <v>20.93404470523001</v>
+        <v>2.553892351498405</v>
       </c>
       <c r="J2">
-        <v>6.350616951297964</v>
+        <v>7.359046104654306</v>
       </c>
       <c r="K2">
-        <v>10.4687537885227</v>
+        <v>11.73856313858746</v>
       </c>
       <c r="L2">
-        <v>7.227120458902527</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.17825361058428</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.042691750236775</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.98817423401668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.7213143951694</v>
+        <v>22.64453051620339</v>
       </c>
       <c r="C3">
-        <v>6.084968415643885</v>
+        <v>14.19821606160147</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.045733353378299</v>
+        <v>8.561396980516013</v>
       </c>
       <c r="F3">
-        <v>31.0120827570303</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>36.50431979178405</v>
+        <v>14.63882801871045</v>
       </c>
       <c r="H3">
-        <v>12.64436586547432</v>
+        <v>1.67460815926636</v>
       </c>
       <c r="I3">
-        <v>21.00934603311107</v>
+        <v>2.527592462387419</v>
       </c>
       <c r="J3">
-        <v>6.370068911516736</v>
+        <v>7.464369154429944</v>
       </c>
       <c r="K3">
-        <v>9.83156698944871</v>
+        <v>12.03950482334825</v>
       </c>
       <c r="L3">
-        <v>7.094919695733076</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.851774936619991</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.722753378167611</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.14221794518525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22683880403523</v>
+        <v>21.61472370998277</v>
       </c>
       <c r="C4">
-        <v>5.963665328038378</v>
+        <v>13.82612917929104</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.000705572058635</v>
+        <v>8.520853818587344</v>
       </c>
       <c r="F4">
-        <v>30.7312484151263</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>36.3412517157771</v>
+        <v>14.69442128912392</v>
       </c>
       <c r="H4">
-        <v>12.67998069216297</v>
+        <v>1.788904010471833</v>
       </c>
       <c r="I4">
-        <v>21.0683339992805</v>
+        <v>2.617485561414248</v>
       </c>
       <c r="J4">
-        <v>6.382245635031837</v>
+        <v>7.532210864844305</v>
       </c>
       <c r="K4">
-        <v>9.419531037778235</v>
+        <v>12.22881448459188</v>
       </c>
       <c r="L4">
-        <v>7.015356177734075</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.650004553410763</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.519691142158727</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.24446148299504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01993513966383</v>
+        <v>21.1799114304318</v>
       </c>
       <c r="C5">
-        <v>5.913472103833393</v>
+        <v>13.68131220405154</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.982963966052105</v>
+        <v>8.502238882479087</v>
       </c>
       <c r="F5">
-        <v>30.62132194862434</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>36.28211446733744</v>
+        <v>14.7083482465729</v>
       </c>
       <c r="H5">
-        <v>12.69618893232707</v>
+        <v>1.8367157892503</v>
       </c>
       <c r="I5">
-        <v>21.09546208378546</v>
+        <v>2.658106417567857</v>
       </c>
       <c r="J5">
-        <v>6.38727015838171</v>
+        <v>7.558771786070063</v>
       </c>
       <c r="K5">
-        <v>9.24640313850076</v>
+        <v>12.30464225084094</v>
       </c>
       <c r="L5">
-        <v>6.983368819728303</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.567568573372371</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.436136402890996</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.28305586788928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98525685657768</v>
+        <v>21.10664997072557</v>
       </c>
       <c r="C6">
-        <v>5.905092233224362</v>
+        <v>13.66839725363153</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.980054872385302</v>
+        <v>8.496867171400559</v>
       </c>
       <c r="F6">
-        <v>30.60334152449128</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>36.272729987169</v>
+        <v>14.69473744580887</v>
       </c>
       <c r="H6">
-        <v>12.69898095769303</v>
+        <v>1.84501169095554</v>
       </c>
       <c r="I6">
-        <v>21.10014996776746</v>
+        <v>2.668821715088704</v>
       </c>
       <c r="J6">
-        <v>6.388108352822716</v>
+        <v>7.560951567076447</v>
       </c>
       <c r="K6">
-        <v>9.217340650674831</v>
+        <v>12.31429953807444</v>
       </c>
       <c r="L6">
-        <v>6.978084540304296</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.553870857162741</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.423119141175334</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.28357750609904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22407011641446</v>
+        <v>21.6085168130258</v>
       </c>
       <c r="C7">
-        <v>5.962991457914732</v>
+        <v>13.85463665963823</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.000463833729482</v>
+        <v>8.514464654351944</v>
       </c>
       <c r="F7">
-        <v>30.72974762032393</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>36.34042484875704</v>
+        <v>14.65033374937913</v>
       </c>
       <c r="H7">
-        <v>12.68019249702212</v>
+        <v>1.790334011977931</v>
       </c>
       <c r="I7">
-        <v>21.06868749830947</v>
+        <v>2.628383496521851</v>
       </c>
       <c r="J7">
-        <v>6.382313139959746</v>
+        <v>7.526347901225851</v>
       </c>
       <c r="K7">
-        <v>9.417217287296452</v>
+        <v>12.22165951578247</v>
       </c>
       <c r="L7">
-        <v>7.014922981317935</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.648893494567098</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.521134474185518</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.22857294724884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23678347302034</v>
+        <v>23.69165605904701</v>
       </c>
       <c r="C8">
-        <v>6.211750900601873</v>
+        <v>14.62548269042073</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.095839197494033</v>
+        <v>8.595957711457554</v>
       </c>
       <c r="F8">
-        <v>31.32717225992051</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>36.70393993296977</v>
+        <v>14.53720801229541</v>
       </c>
       <c r="H8">
-        <v>12.61232294630272</v>
+        <v>1.564087777699121</v>
       </c>
       <c r="I8">
-        <v>20.95729040964272</v>
+        <v>2.511023588680134</v>
       </c>
       <c r="J8">
-        <v>6.357277944519202</v>
+        <v>7.386467494281124</v>
       </c>
       <c r="K8">
-        <v>10.25337182702116</v>
+        <v>11.83077717402279</v>
       </c>
       <c r="L8">
-        <v>7.181222493631807</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.06602328090644</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.937054576219674</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.01783616518104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.20901939961493</v>
+        <v>27.30592101481298</v>
       </c>
       <c r="C9">
-        <v>6.674255776722354</v>
+        <v>16.0000916228015</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.301468411082242</v>
+        <v>8.758874924523411</v>
       </c>
       <c r="F9">
-        <v>32.64003582131922</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>37.66324058995253</v>
+        <v>14.55883831458006</v>
       </c>
       <c r="H9">
-        <v>12.5373928298397</v>
+        <v>1.982369470548667</v>
       </c>
       <c r="I9">
-        <v>20.84544966799368</v>
+        <v>2.836101282612798</v>
       </c>
       <c r="J9">
-        <v>6.309851133805473</v>
+        <v>7.149405566028749</v>
       </c>
       <c r="K9">
-        <v>11.72812296953736</v>
+        <v>11.11365006321696</v>
       </c>
       <c r="L9">
-        <v>7.518740443633087</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.86894782340415</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.6926883332332</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.6992717566604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.51515831434117</v>
+        <v>29.67498335051473</v>
       </c>
       <c r="C10">
-        <v>6.998050476224747</v>
+        <v>17.05841077617594</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.463385025626106</v>
+        <v>8.776320827372414</v>
       </c>
       <c r="F10">
-        <v>33.68914398573067</v>
+        <v>37.72874519847218</v>
       </c>
       <c r="G10">
-        <v>38.52944720174084</v>
+        <v>14.46007768164601</v>
       </c>
       <c r="H10">
-        <v>12.52180869772431</v>
+        <v>2.263463026347284</v>
       </c>
       <c r="I10">
-        <v>20.83600501359606</v>
+        <v>3.063146425839979</v>
       </c>
       <c r="J10">
-        <v>6.275749317440581</v>
+        <v>6.960006987248517</v>
       </c>
       <c r="K10">
-        <v>12.71188214658663</v>
+        <v>10.57140313596716</v>
       </c>
       <c r="L10">
-        <v>7.771903782769632</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.44415083399449</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.079148651442292</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10.42324431171703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.07911804596034</v>
+        <v>30.67739723658045</v>
       </c>
       <c r="C11">
-        <v>7.141842258593889</v>
+        <v>18.38719454330336</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.539286356692614</v>
+        <v>8.196799138908215</v>
       </c>
       <c r="F11">
-        <v>34.18435144301783</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>38.96068210868322</v>
+        <v>12.57283009140699</v>
       </c>
       <c r="H11">
-        <v>12.52420669557247</v>
+        <v>3.067664999769542</v>
       </c>
       <c r="I11">
-        <v>20.84925178757772</v>
+        <v>3.137247215646157</v>
       </c>
       <c r="J11">
-        <v>6.260330602269401</v>
+        <v>6.619575873859784</v>
       </c>
       <c r="K11">
-        <v>13.13809147197729</v>
+        <v>10.12659295902068</v>
       </c>
       <c r="L11">
-        <v>7.887851673283622</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.7016777921784</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.134373740971824</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9.604785241425393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28839709748709</v>
+        <v>31.04423926424785</v>
       </c>
       <c r="C12">
-        <v>7.195790933883954</v>
+        <v>19.27641675430126</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.568341163851882</v>
+        <v>8.074937690409149</v>
       </c>
       <c r="F12">
-        <v>34.37441962839653</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>39.12948601702231</v>
+        <v>11.0661367402263</v>
       </c>
       <c r="H12">
-        <v>12.52655860880411</v>
+        <v>4.280041278474496</v>
       </c>
       <c r="I12">
-        <v>20.85694116739894</v>
+        <v>3.152328801648868</v>
       </c>
       <c r="J12">
-        <v>6.254499519708729</v>
+        <v>6.391544553076687</v>
       </c>
       <c r="K12">
-        <v>13.29645614985193</v>
+        <v>9.986973401807383</v>
       </c>
       <c r="L12">
-        <v>7.931843730626229</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.79853643195398</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.281473847478328</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.018425209567143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.24351442991405</v>
+        <v>30.95654755050368</v>
       </c>
       <c r="C13">
-        <v>7.184194380356831</v>
+        <v>19.93731005784981</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.562069946504884</v>
+        <v>8.295090908417707</v>
       </c>
       <c r="F13">
-        <v>34.33337248416176</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>39.09288384411058</v>
+        <v>9.708968982461224</v>
       </c>
       <c r="H13">
-        <v>12.52598656502734</v>
+        <v>5.578944159589557</v>
       </c>
       <c r="I13">
-        <v>20.85516378646934</v>
+        <v>3.126911021411802</v>
       </c>
       <c r="J13">
-        <v>6.255755107113366</v>
+        <v>6.229726340877555</v>
       </c>
       <c r="K13">
-        <v>13.26248373407565</v>
+        <v>10.05844938770952</v>
       </c>
       <c r="L13">
-        <v>7.922365880938802</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.77770654541243</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.449945845412175</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8.56175361728352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09642096718449</v>
+        <v>30.68828683771851</v>
       </c>
       <c r="C14">
-        <v>7.146290686928943</v>
+        <v>20.31311695517634</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.541670505122797</v>
+        <v>8.63691206815523</v>
       </c>
       <c r="F14">
-        <v>34.19993769414432</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>38.97445851808399</v>
+        <v>8.855310693490607</v>
       </c>
       <c r="H14">
-        <v>12.52437078472332</v>
+        <v>6.516907495757911</v>
       </c>
       <c r="I14">
-        <v>20.84982994508967</v>
+        <v>3.092111276358593</v>
       </c>
       <c r="J14">
-        <v>6.25985075798523</v>
+        <v>6.149413625591161</v>
       </c>
       <c r="K14">
-        <v>13.15118077976306</v>
+        <v>10.21437339524614</v>
       </c>
       <c r="L14">
-        <v>7.891469369581706</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.70966000603911</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.893671390577655</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.312516702249123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00576649734132</v>
+        <v>30.52431976819005</v>
       </c>
       <c r="C15">
-        <v>7.123008311356998</v>
+        <v>20.3654366127449</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.529215673041247</v>
+        <v>8.739554227062255</v>
       </c>
       <c r="F15">
-        <v>34.11853522318853</v>
+        <v>38.96319309123408</v>
       </c>
       <c r="G15">
-        <v>38.90264096028611</v>
+        <v>8.675620196932126</v>
       </c>
       <c r="H15">
-        <v>12.52357152097597</v>
+        <v>6.730794009022991</v>
       </c>
       <c r="I15">
-        <v>20.84691548042576</v>
+        <v>3.075841565707651</v>
       </c>
       <c r="J15">
-        <v>6.262360274427628</v>
+        <v>6.141539697144374</v>
       </c>
       <c r="K15">
-        <v>13.08261077091288</v>
+        <v>10.28278989925911</v>
       </c>
       <c r="L15">
-        <v>7.872554672635935</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.66789163147055</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.760245834535724</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.274397603608056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.47769972443217</v>
+        <v>29.57247966955806</v>
       </c>
       <c r="C16">
-        <v>6.988582882376651</v>
+        <v>19.84651268645824</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.458468990509118</v>
+        <v>8.671954534125264</v>
       </c>
       <c r="F16">
-        <v>33.65713904522105</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>38.50202694574364</v>
+        <v>8.995305195865381</v>
       </c>
       <c r="H16">
-        <v>12.5218496211266</v>
+        <v>6.4664171163136</v>
       </c>
       <c r="I16">
-        <v>20.83550506622538</v>
+        <v>2.98516197594275</v>
       </c>
       <c r="J16">
-        <v>6.276758370924419</v>
+        <v>6.25632742696281</v>
       </c>
       <c r="K16">
-        <v>12.68360224494736</v>
+        <v>10.47865304039597</v>
       </c>
       <c r="L16">
-        <v>7.764339667688956</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.42723169093456</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.730169861297086</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.493184787735963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.14605509717054</v>
+        <v>28.97504791873836</v>
       </c>
       <c r="C17">
-        <v>6.905219610512031</v>
+        <v>19.2326708614909</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.415635821108081</v>
+        <v>8.410250943748334</v>
       </c>
       <c r="F17">
-        <v>33.37865930390551</v>
+        <v>36.80228778268392</v>
       </c>
       <c r="G17">
-        <v>38.2659030679235</v>
+        <v>9.661452116053239</v>
       </c>
       <c r="H17">
-        <v>12.52327882683459</v>
+        <v>5.717861204325828</v>
       </c>
       <c r="I17">
-        <v>20.8331038561144</v>
+        <v>2.93431295128624</v>
       </c>
       <c r="J17">
-        <v>6.28561124945586</v>
+        <v>6.384214980371287</v>
       </c>
       <c r="K17">
-        <v>12.43338730684778</v>
+        <v>10.54386248891223</v>
       </c>
       <c r="L17">
-        <v>7.698133499928525</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.27848463950118</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.999060929323169</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.782534671962232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.95245445761861</v>
+        <v>28.62986131060948</v>
       </c>
       <c r="C18">
-        <v>6.856941068169988</v>
+        <v>18.45534931400256</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.391211196827333</v>
+        <v>8.116786483353357</v>
       </c>
       <c r="F18">
-        <v>33.22017812211674</v>
+        <v>36.31710943239621</v>
       </c>
       <c r="G18">
-        <v>38.13358292134892</v>
+        <v>10.77219811828821</v>
       </c>
       <c r="H18">
-        <v>12.52498890331052</v>
+        <v>4.503984646052062</v>
       </c>
       <c r="I18">
-        <v>20.83336469389204</v>
+        <v>2.910385517029596</v>
       </c>
       <c r="J18">
-        <v>6.29071245644985</v>
+        <v>6.549130083037066</v>
       </c>
       <c r="K18">
-        <v>12.28746239497266</v>
+        <v>10.55349376094642</v>
       </c>
       <c r="L18">
-        <v>7.66012863989209</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.1925432883372</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.600564802797495</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.197506010935939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88641365830465</v>
+        <v>28.51878332298811</v>
       </c>
       <c r="C19">
-        <v>6.840538091061409</v>
+        <v>17.6810005593607</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.382978142041111</v>
+        <v>8.093485596903985</v>
       </c>
       <c r="F19">
-        <v>33.16681113842908</v>
+        <v>36.15172494157627</v>
       </c>
       <c r="G19">
-        <v>38.08937646495515</v>
+        <v>12.15637762254822</v>
       </c>
       <c r="H19">
-        <v>12.52571805421764</v>
+        <v>3.151154776027869</v>
       </c>
       <c r="I19">
-        <v>20.83373051236869</v>
+        <v>2.92193807575883</v>
       </c>
       <c r="J19">
-        <v>6.292441401229391</v>
+        <v>6.735293102310385</v>
       </c>
       <c r="K19">
-        <v>12.23770897367408</v>
+        <v>10.5952794492389</v>
       </c>
       <c r="L19">
-        <v>7.647274631050484</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.16338093169106</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.473374385089985</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9.69448684292483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.18165347723919</v>
+        <v>29.07092680826139</v>
       </c>
       <c r="C20">
-        <v>6.914127948245029</v>
+        <v>16.87238894841888</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.420173630377944</v>
+        <v>8.750662531391477</v>
       </c>
       <c r="F20">
-        <v>33.40812902396789</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>38.29067628606315</v>
+        <v>14.33367242020905</v>
       </c>
       <c r="H20">
-        <v>12.52303421096661</v>
+        <v>2.187134893318806</v>
       </c>
       <c r="I20">
-        <v>20.83318845944319</v>
+        <v>3.014524791609891</v>
       </c>
       <c r="J20">
-        <v>6.284667927798723</v>
+        <v>6.987951421636184</v>
       </c>
       <c r="K20">
-        <v>12.46023070679525</v>
+        <v>10.68794016813803</v>
       </c>
       <c r="L20">
-        <v>7.705173684892618</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.29435948021385</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.980362280649656</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.43741114031344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13974152586973</v>
+        <v>30.80281107395717</v>
       </c>
       <c r="C21">
-        <v>7.157437513182055</v>
+        <v>17.49898617916907</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.54765391089458</v>
+        <v>8.913774767986769</v>
       </c>
       <c r="F21">
-        <v>34.23906197882537</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>39.00909230429961</v>
+        <v>14.65420869387541</v>
       </c>
       <c r="H21">
-        <v>12.52480554272988</v>
+        <v>2.413235538244969</v>
       </c>
       <c r="I21">
-        <v>20.85132285271855</v>
+        <v>3.19010543063232</v>
       </c>
       <c r="J21">
-        <v>6.258647608109219</v>
+        <v>6.898294088648941</v>
       </c>
       <c r="K21">
-        <v>13.18395514366938</v>
+        <v>10.33154496620599</v>
       </c>
       <c r="L21">
-        <v>7.900542321326181</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.72966534715566</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.468601913239732</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10.3766690177872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7409904160285</v>
+        <v>31.88336029916751</v>
       </c>
       <c r="C22">
-        <v>7.313531396977689</v>
+        <v>17.91259805773392</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.632787343233531</v>
+        <v>8.978107877005939</v>
       </c>
       <c r="F22">
-        <v>34.7969376807046</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>39.51077180690106</v>
+        <v>14.83641718955451</v>
       </c>
       <c r="H22">
-        <v>12.53441830402796</v>
+        <v>2.553359742163864</v>
       </c>
       <c r="I22">
-        <v>20.87882901888634</v>
+        <v>3.297161766985164</v>
       </c>
       <c r="J22">
-        <v>6.241683296061612</v>
+        <v>6.836627504632045</v>
       </c>
       <c r="K22">
-        <v>13.63929978205322</v>
+        <v>10.09630911603507</v>
       </c>
       <c r="L22">
-        <v>8.028712066236691</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.01028534997365</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.709191976766375</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10.32879967832497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42235068071787</v>
+        <v>31.31160460137222</v>
       </c>
       <c r="C23">
-        <v>7.230486890847386</v>
+        <v>17.66288085793908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.587186991125268</v>
+        <v>8.950244715480075</v>
       </c>
       <c r="F23">
-        <v>34.49784527739353</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>39.24002410471423</v>
+        <v>14.7868262472144</v>
       </c>
       <c r="H23">
-        <v>12.52848700667417</v>
+        <v>2.479449058540621</v>
       </c>
       <c r="I23">
-        <v>20.86266510283412</v>
+        <v>3.236169268665094</v>
       </c>
       <c r="J23">
-        <v>6.250735764502863</v>
+        <v>6.876592231911906</v>
       </c>
       <c r="K23">
-        <v>13.39787666713727</v>
+        <v>10.23064653778353</v>
       </c>
       <c r="L23">
-        <v>7.960269530863548</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.86088720546746</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.578978061122243</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10.37303617205859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.16556859230661</v>
+        <v>29.04373643341957</v>
       </c>
       <c r="C24">
-        <v>6.910101584879522</v>
+        <v>16.73911003012909</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.418121460785875</v>
+        <v>8.833352821692891</v>
       </c>
       <c r="F24">
-        <v>33.39480071288595</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>38.27946564043595</v>
+        <v>14.57328471224899</v>
       </c>
       <c r="H24">
-        <v>12.52314204059632</v>
+        <v>2.192892055593756</v>
       </c>
       <c r="I24">
-        <v>20.8331451092458</v>
+        <v>3.008035912252737</v>
       </c>
       <c r="J24">
-        <v>6.285094367043158</v>
+        <v>7.024002775249033</v>
       </c>
       <c r="K24">
-        <v>12.44810126503664</v>
+        <v>10.73202258565213</v>
       </c>
       <c r="L24">
-        <v>7.701990634665871</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.28718378237311</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.074474141928007</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.53163263356156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70082342492717</v>
+        <v>26.37775495479482</v>
       </c>
       <c r="C25">
-        <v>6.551920794672722</v>
+        <v>15.68827029221694</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.243898548417153</v>
+        <v>8.705224254613436</v>
       </c>
       <c r="F25">
-        <v>32.26988526678849</v>
+        <v>33.19272459126712</v>
       </c>
       <c r="G25">
-        <v>37.3761343412946</v>
+        <v>14.4543733869551</v>
       </c>
       <c r="H25">
-        <v>12.55103285072421</v>
+        <v>1.87116071673129</v>
       </c>
       <c r="I25">
-        <v>20.86351057228556</v>
+        <v>2.755450107636613</v>
       </c>
       <c r="J25">
-        <v>6.322529903843344</v>
+        <v>7.199348946560185</v>
       </c>
       <c r="K25">
-        <v>11.34676802066917</v>
+        <v>11.28988002094907</v>
       </c>
       <c r="L25">
-        <v>7.426397589544149</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.65395814133502</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.498825852808553</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.74787252611047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.22458531875021</v>
+        <v>24.24656286400015</v>
       </c>
       <c r="C2">
-        <v>14.7878099462253</v>
+        <v>14.62316440340436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.625891823139277</v>
+        <v>8.549429198649172</v>
       </c>
       <c r="F2">
         <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>14.57939641687914</v>
+        <v>13.62645305636928</v>
       </c>
       <c r="H2">
-        <v>1.624740631675043</v>
+        <v>1.66225860406999</v>
       </c>
       <c r="I2">
-        <v>2.553892351498405</v>
+        <v>2.607298409030772</v>
       </c>
       <c r="J2">
-        <v>7.359046104654306</v>
+        <v>7.931322115965951</v>
       </c>
       <c r="K2">
-        <v>11.73856313858746</v>
+        <v>11.60330170225573</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.2035707372788</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.919386195519206</v>
       </c>
       <c r="N2">
-        <v>8.042691750236775</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.081003534055565</v>
       </c>
       <c r="Q2">
-        <v>10.98817423401668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.94300811892041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.64453051620339</v>
+        <v>22.67271186981283</v>
       </c>
       <c r="C3">
-        <v>14.19821606160147</v>
+        <v>13.96404358861367</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.561396980516013</v>
+        <v>8.496654576133549</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>14.63882801871045</v>
+        <v>13.72034672904419</v>
       </c>
       <c r="H3">
-        <v>1.67460815926636</v>
+        <v>1.624079475606952</v>
       </c>
       <c r="I3">
-        <v>2.527592462387419</v>
+        <v>2.48521692300003</v>
       </c>
       <c r="J3">
-        <v>7.464369154429944</v>
+        <v>8.003671334919604</v>
       </c>
       <c r="K3">
-        <v>12.03950482334825</v>
+        <v>11.88719089241295</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.40509548950759</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.201586238449556</v>
       </c>
       <c r="N3">
-        <v>7.722753378167611</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.764768299420803</v>
       </c>
       <c r="Q3">
-        <v>11.14221794518525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.09988853673834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61472370998277</v>
+        <v>21.64699028533717</v>
       </c>
       <c r="C4">
-        <v>13.82612917929104</v>
+        <v>13.54767652832966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.520853818587344</v>
+        <v>8.463335107679121</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>14.69442128912392</v>
+        <v>13.79737841793478</v>
       </c>
       <c r="H4">
-        <v>1.788904010471833</v>
+        <v>1.730734485592115</v>
       </c>
       <c r="I4">
-        <v>2.617485561414248</v>
+        <v>2.543243916360534</v>
       </c>
       <c r="J4">
-        <v>7.532210864844305</v>
+        <v>8.049689005906204</v>
       </c>
       <c r="K4">
-        <v>12.22881448459188</v>
+        <v>12.065531554795</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.53808764577226</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.388602309099429</v>
       </c>
       <c r="N4">
-        <v>7.519691142158727</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.564361708133418</v>
       </c>
       <c r="Q4">
-        <v>11.24446148299504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.2023285163259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.1799114304318</v>
+        <v>21.21392067051806</v>
       </c>
       <c r="C5">
-        <v>13.68131220405154</v>
+        <v>13.38435656693185</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.502238882479087</v>
+        <v>8.447711297451251</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>14.7083482465729</v>
+        <v>13.81975896975238</v>
       </c>
       <c r="H5">
-        <v>1.8367157892503</v>
+        <v>1.775374076507572</v>
       </c>
       <c r="I5">
-        <v>2.658106417567857</v>
+        <v>2.580583114046108</v>
       </c>
       <c r="J5">
-        <v>7.558771786070063</v>
+        <v>8.067028917364194</v>
       </c>
       <c r="K5">
-        <v>12.30464225084094</v>
+        <v>12.13675383919055</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.59116129190788</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.468163571632112</v>
       </c>
       <c r="N5">
-        <v>7.436136402890996</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.481955269200241</v>
       </c>
       <c r="Q5">
-        <v>11.28305586788928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.24072632627179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10664997072557</v>
+        <v>21.14094978254298</v>
       </c>
       <c r="C6">
-        <v>13.66839725363153</v>
+        <v>13.3682164301053</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.496867171400559</v>
+        <v>8.442888253855999</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>14.69473744580887</v>
+        <v>13.80719792602404</v>
       </c>
       <c r="H6">
-        <v>1.84501169095554</v>
+        <v>1.783138340718159</v>
       </c>
       <c r="I6">
-        <v>2.668821715088704</v>
+        <v>2.591469668257358</v>
       </c>
       <c r="J6">
-        <v>7.560951567076447</v>
+        <v>8.067723332005402</v>
       </c>
       <c r="K6">
-        <v>12.31429953807444</v>
+        <v>12.14562727820112</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.59596889292735</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.481573483004657</v>
       </c>
       <c r="N6">
-        <v>7.423119141175334</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.469091432259481</v>
       </c>
       <c r="Q6">
-        <v>11.28357750609904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.24130796683036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6085168130258</v>
+        <v>21.64059468075302</v>
       </c>
       <c r="C7">
-        <v>13.85463665963823</v>
+        <v>13.57008145845584</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.514464654351944</v>
+        <v>8.45703172197128</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>14.65033374937913</v>
+        <v>13.8215625619813</v>
       </c>
       <c r="H7">
-        <v>1.790334011977931</v>
+        <v>1.732592000840898</v>
       </c>
       <c r="I7">
-        <v>2.628383496521851</v>
+        <v>2.556461407078667</v>
       </c>
       <c r="J7">
-        <v>7.526347901225851</v>
+        <v>8.018249563061492</v>
       </c>
       <c r="K7">
-        <v>12.22165951578247</v>
+        <v>12.05561306798972</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.52419644159989</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.389190753379069</v>
       </c>
       <c r="N7">
-        <v>7.521134474185518</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.565138057828006</v>
       </c>
       <c r="Q7">
-        <v>11.22857294724884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.17782771772238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.69165605904701</v>
+        <v>23.71510666655831</v>
       </c>
       <c r="C8">
-        <v>14.62548269042073</v>
+        <v>14.41949542077482</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.595957711457554</v>
+        <v>8.523612133436378</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>14.53720801229541</v>
+        <v>13.82750206673081</v>
       </c>
       <c r="H8">
-        <v>1.564087777699121</v>
+        <v>1.604214484076421</v>
       </c>
       <c r="I8">
-        <v>2.511023588680134</v>
+        <v>2.568971718086484</v>
       </c>
       <c r="J8">
-        <v>7.386467494281124</v>
+        <v>7.865161029705832</v>
       </c>
       <c r="K8">
-        <v>11.83077717402279</v>
+        <v>11.68161355077886</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.24921766288214</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.008710710189542</v>
       </c>
       <c r="N8">
-        <v>7.937054576219674</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.974662603601235</v>
       </c>
       <c r="Q8">
-        <v>11.01783616518104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.94487404689869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.30592101481298</v>
+        <v>27.31493436413517</v>
       </c>
       <c r="C9">
-        <v>16.0000916228015</v>
+        <v>15.95461524538961</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.758874924523411</v>
+        <v>8.657577542806738</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>14.55883831458006</v>
+        <v>13.83255380589701</v>
       </c>
       <c r="H9">
-        <v>1.982369470548667</v>
+        <v>1.993997320168914</v>
       </c>
       <c r="I9">
-        <v>2.836101282612798</v>
+        <v>2.859620746780744</v>
       </c>
       <c r="J9">
-        <v>7.149405566028749</v>
+        <v>7.677088593994881</v>
       </c>
       <c r="K9">
-        <v>11.11365006321696</v>
+        <v>11.00264363468599</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.814159733911429</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.380918789104592</v>
       </c>
       <c r="N9">
-        <v>8.6926883332332</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.722801794182896</v>
       </c>
       <c r="Q9">
-        <v>10.6992717566604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.60079852599876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.67498335051473</v>
+        <v>29.67327058471196</v>
       </c>
       <c r="C10">
-        <v>17.05841077617594</v>
+        <v>17.08119626904767</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.776320827372414</v>
+        <v>8.658463430142866</v>
       </c>
       <c r="F10">
-        <v>37.72874519847218</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>14.46007768164601</v>
+        <v>14.15051825597804</v>
       </c>
       <c r="H10">
-        <v>2.263463026347284</v>
+        <v>2.25339992028377</v>
       </c>
       <c r="I10">
-        <v>3.063146425839979</v>
+        <v>3.061956214672682</v>
       </c>
       <c r="J10">
-        <v>6.960006987248517</v>
+        <v>7.388254286950287</v>
       </c>
       <c r="K10">
-        <v>10.57140313596716</v>
+        <v>10.48224038982528</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.519866889172507</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.956255495619373</v>
       </c>
       <c r="N10">
-        <v>9.079148651442292</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.10134052039715</v>
       </c>
       <c r="Q10">
-        <v>10.42324431171703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.25537362826888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.67739723658045</v>
+        <v>30.67084958286307</v>
       </c>
       <c r="C11">
-        <v>18.38719454330336</v>
+        <v>18.27682350995487</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.196799138908215</v>
+        <v>8.095047354363306</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>12.57283009140699</v>
+        <v>13.27856356742348</v>
       </c>
       <c r="H11">
-        <v>3.067664999769542</v>
+        <v>3.052761874738642</v>
       </c>
       <c r="I11">
-        <v>3.137247215646157</v>
+        <v>3.12682253105374</v>
       </c>
       <c r="J11">
-        <v>6.619575873859784</v>
+        <v>6.944895663785205</v>
       </c>
       <c r="K11">
-        <v>10.12659295902068</v>
+        <v>10.11042436564767</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.350593134682029</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.577336233472931</v>
       </c>
       <c r="N11">
-        <v>8.134373740971824</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.138981990259712</v>
       </c>
       <c r="Q11">
-        <v>9.604785241425393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.422145991215956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.04423926424785</v>
+        <v>31.03614007481077</v>
       </c>
       <c r="C12">
-        <v>19.27641675430126</v>
+        <v>19.04854658756835</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.074937690409149</v>
+        <v>7.972615097242739</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>11.0661367402263</v>
+        <v>12.25547913183681</v>
       </c>
       <c r="H12">
-        <v>4.280041278474496</v>
+        <v>4.267735254040826</v>
       </c>
       <c r="I12">
-        <v>3.152328801648868</v>
+        <v>3.138150975694562</v>
       </c>
       <c r="J12">
-        <v>6.391544553076687</v>
+        <v>6.780480480078064</v>
       </c>
       <c r="K12">
-        <v>9.986973401807383</v>
+        <v>10.02464738645263</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.354885471980236</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.439321028697069</v>
       </c>
       <c r="N12">
-        <v>7.281473847478328</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.275081755639211</v>
       </c>
       <c r="Q12">
-        <v>9.018425209567143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>8.875927335076787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.95654755050368</v>
+        <v>30.94957618075021</v>
       </c>
       <c r="C13">
-        <v>19.93731005784981</v>
+        <v>19.60770775587002</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.295090908417707</v>
+        <v>8.182659962817626</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>9.708968982461224</v>
+        <v>10.79227667145245</v>
       </c>
       <c r="H13">
-        <v>5.578944159589557</v>
+        <v>5.570579812453224</v>
       </c>
       <c r="I13">
-        <v>3.126911021411802</v>
+        <v>3.115179031780872</v>
       </c>
       <c r="J13">
-        <v>6.229726340877555</v>
+        <v>6.743327446058347</v>
       </c>
       <c r="K13">
-        <v>10.05844938770952</v>
+        <v>10.11364045072437</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.434598771662463</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.482374524976075</v>
       </c>
       <c r="N13">
-        <v>6.449945845412175</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.438558648559058</v>
       </c>
       <c r="Q13">
-        <v>8.56175361728352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.51038716320466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.68828683771851</v>
+        <v>30.68326632412562</v>
       </c>
       <c r="C14">
-        <v>20.31311695517634</v>
+        <v>19.91782464373648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.63691206815523</v>
+        <v>8.513432662327929</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>8.855310693490607</v>
+        <v>9.590181601005911</v>
       </c>
       <c r="H14">
-        <v>6.516907495757911</v>
+        <v>6.511194393191413</v>
       </c>
       <c r="I14">
-        <v>3.092111276358593</v>
+        <v>3.08515581800954</v>
       </c>
       <c r="J14">
-        <v>6.149413625591161</v>
+        <v>6.748546177696153</v>
       </c>
       <c r="K14">
-        <v>10.21437339524614</v>
+        <v>10.25175296038434</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.51415044594337</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.605336096801676</v>
       </c>
       <c r="N14">
-        <v>5.893671390577655</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.882267323625345</v>
       </c>
       <c r="Q14">
-        <v>8.312516702249123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.335020068791973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.52431976819005</v>
+        <v>30.52035624493119</v>
       </c>
       <c r="C15">
-        <v>20.3654366127449</v>
+        <v>19.9571354809852</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.739554227062255</v>
+        <v>8.614118544630635</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>8.675620196932126</v>
+        <v>9.221951076524086</v>
       </c>
       <c r="H15">
-        <v>6.730794009022991</v>
+        <v>6.726004712052151</v>
       </c>
       <c r="I15">
-        <v>3.075841565707651</v>
+        <v>3.071911560114492</v>
       </c>
       <c r="J15">
-        <v>6.141539697144374</v>
+        <v>6.762524547864326</v>
       </c>
       <c r="K15">
-        <v>10.28278989925911</v>
+        <v>10.30682710569294</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.53578281865293</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.664355581357887</v>
       </c>
       <c r="N15">
-        <v>5.760245834535724</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.750068162110089</v>
       </c>
       <c r="Q15">
-        <v>8.274397603608056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.319712556681496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.57247966955806</v>
+        <v>29.57405622203731</v>
       </c>
       <c r="C16">
-        <v>19.84651268645824</v>
+        <v>19.46879823239326</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.671954534125264</v>
+        <v>8.560229149880762</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>8.995305195865381</v>
+        <v>8.787908929220956</v>
       </c>
       <c r="H16">
-        <v>6.4664171163136</v>
+        <v>6.465299481316176</v>
       </c>
       <c r="I16">
-        <v>2.98516197594275</v>
+        <v>2.994930407020773</v>
       </c>
       <c r="J16">
-        <v>6.25632742696281</v>
+        <v>6.924984074754932</v>
       </c>
       <c r="K16">
-        <v>10.47865304039597</v>
+        <v>10.45177918264611</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.529291461989944</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.870484807357708</v>
       </c>
       <c r="N16">
-        <v>5.730169861297086</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.729208143882344</v>
       </c>
       <c r="Q16">
-        <v>8.493184787735963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.58857459955143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.97504791873836</v>
+        <v>28.97966185113518</v>
       </c>
       <c r="C17">
-        <v>19.2326708614909</v>
+        <v>18.90751675180643</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.410250943748334</v>
+        <v>8.313700627708288</v>
       </c>
       <c r="F17">
-        <v>36.80228778268392</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>9.661452116053239</v>
+        <v>9.164377972357052</v>
       </c>
       <c r="H17">
-        <v>5.717861204325828</v>
+        <v>5.718800465250087</v>
       </c>
       <c r="I17">
-        <v>2.93431295128624</v>
+        <v>2.951701703136435</v>
       </c>
       <c r="J17">
-        <v>6.384214980371287</v>
+        <v>7.074372019352255</v>
       </c>
       <c r="K17">
-        <v>10.54386248891223</v>
+        <v>10.50550241430433</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.508629572759594</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.958646110737863</v>
       </c>
       <c r="N17">
-        <v>5.999060929323169</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.004027102292962</v>
       </c>
       <c r="Q17">
-        <v>8.782534671962232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.881474416920573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.62986131060948</v>
+        <v>28.63585029498262</v>
       </c>
       <c r="C18">
-        <v>18.45534931400256</v>
+        <v>18.21611144234386</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.116786483353357</v>
+        <v>8.034361219251261</v>
       </c>
       <c r="F18">
-        <v>36.31710943239621</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>10.77219811828821</v>
+        <v>10.13642836128625</v>
       </c>
       <c r="H18">
-        <v>4.503984646052062</v>
+        <v>4.506412781859338</v>
       </c>
       <c r="I18">
-        <v>2.910385517029596</v>
+        <v>2.93009191477862</v>
       </c>
       <c r="J18">
-        <v>6.549130083037066</v>
+        <v>7.234586464346774</v>
       </c>
       <c r="K18">
-        <v>10.55349376094642</v>
+        <v>10.5201112882632</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.49615769875669</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.981787809372095</v>
       </c>
       <c r="N18">
-        <v>6.600564802797495</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.611141172837634</v>
       </c>
       <c r="Q18">
-        <v>9.197506010935939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.270145961081198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51878332298811</v>
+        <v>28.52465163227737</v>
       </c>
       <c r="C19">
-        <v>17.6810005593607</v>
+        <v>17.54633734927575</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.093485596903985</v>
+        <v>8.012384217593342</v>
       </c>
       <c r="F19">
-        <v>36.15172494157627</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>12.15637762254822</v>
+        <v>11.42197594639961</v>
       </c>
       <c r="H19">
-        <v>3.151154776027869</v>
+        <v>3.154597447714316</v>
       </c>
       <c r="I19">
-        <v>2.92193807575883</v>
+        <v>2.94178895626633</v>
       </c>
       <c r="J19">
-        <v>6.735293102310385</v>
+        <v>7.395728437020437</v>
       </c>
       <c r="K19">
-        <v>10.5952794492389</v>
+        <v>10.55763538625638</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.523442818078024</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.008389206026266</v>
       </c>
       <c r="N19">
-        <v>7.473374385089985</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.490430747713468</v>
       </c>
       <c r="Q19">
-        <v>9.69448684292483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.714874575413331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.07092680826139</v>
+        <v>29.07255742372084</v>
       </c>
       <c r="C20">
-        <v>16.87238894841888</v>
+        <v>16.89244313777968</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.750662531391477</v>
+        <v>8.637833764738563</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>14.33367242020905</v>
+        <v>13.66231455420119</v>
       </c>
       <c r="H20">
-        <v>2.187134893318806</v>
+        <v>2.183983099718931</v>
       </c>
       <c r="I20">
-        <v>3.014524791609891</v>
+        <v>3.024379168253403</v>
       </c>
       <c r="J20">
-        <v>6.987951421636184</v>
+        <v>7.527655009370211</v>
       </c>
       <c r="K20">
-        <v>10.68794016813803</v>
+        <v>10.60438478627712</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.583322926106504</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.051647775650072</v>
       </c>
       <c r="N20">
-        <v>8.980362280649656</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.005873716173102</v>
       </c>
       <c r="Q20">
-        <v>10.43741114031344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.32429307171552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.80281107395717</v>
+        <v>30.79341163730587</v>
       </c>
       <c r="C21">
-        <v>17.49898617916907</v>
+        <v>17.50544998663546</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.913774767986769</v>
+        <v>8.784692681121452</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>14.65420869387541</v>
+        <v>15.62382663986278</v>
       </c>
       <c r="H21">
-        <v>2.413235538244969</v>
+        <v>2.387005784057327</v>
       </c>
       <c r="I21">
-        <v>3.19010543063232</v>
+        <v>3.174110913879723</v>
       </c>
       <c r="J21">
-        <v>6.898294088648941</v>
+        <v>6.998362186924412</v>
       </c>
       <c r="K21">
-        <v>10.33154496620599</v>
+        <v>10.21356114282281</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.387570616594058</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.740334059260983</v>
       </c>
       <c r="N21">
-        <v>9.468601913239732</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.481964667775939</v>
       </c>
       <c r="Q21">
-        <v>10.3766690177872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.01671736504969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.88336029916751</v>
+        <v>31.86690876913972</v>
       </c>
       <c r="C22">
-        <v>17.91259805773392</v>
+        <v>17.89924902180786</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.978107877005939</v>
+        <v>8.84208969669505</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>14.83641718955451</v>
+        <v>17.00425143384676</v>
       </c>
       <c r="H22">
-        <v>2.553359742163864</v>
+        <v>2.51259351603392</v>
       </c>
       <c r="I22">
-        <v>3.297161766985164</v>
+        <v>3.263595021623638</v>
       </c>
       <c r="J22">
-        <v>6.836627504632045</v>
+        <v>6.742960766544987</v>
       </c>
       <c r="K22">
-        <v>10.09630911603507</v>
+        <v>9.95592888716288</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.274254025300186</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.53745130612799</v>
       </c>
       <c r="N22">
-        <v>9.709191976766375</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.7140769960469</v>
       </c>
       <c r="Q22">
-        <v>10.32879967832497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>9.791888633797493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.31160460137222</v>
+        <v>31.29922007195885</v>
       </c>
       <c r="C23">
-        <v>17.66288085793908</v>
+        <v>17.67181617983126</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.950244715480075</v>
+        <v>8.816978000298274</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>14.7868262472144</v>
+        <v>16.12518800382928</v>
       </c>
       <c r="H23">
-        <v>2.479449058540621</v>
+        <v>2.447134876299535</v>
       </c>
       <c r="I23">
-        <v>3.236169268665094</v>
+        <v>3.211338510941703</v>
       </c>
       <c r="J23">
-        <v>6.876592231911906</v>
+        <v>6.899914343701409</v>
       </c>
       <c r="K23">
-        <v>10.23064653778353</v>
+        <v>10.104307295857</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.337319025942008</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.660420763412563</v>
       </c>
       <c r="N23">
-        <v>9.578978061122243</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.589564122465539</v>
       </c>
       <c r="Q23">
-        <v>10.37303617205859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>9.953448673904964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.04373643341957</v>
+        <v>29.04538257847673</v>
       </c>
       <c r="C24">
-        <v>16.73911003012909</v>
+        <v>16.76944413486745</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.833352821692891</v>
+        <v>8.717250652838979</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>14.57328471224899</v>
+        <v>13.87619545074327</v>
       </c>
       <c r="H24">
-        <v>2.192892055593756</v>
+        <v>2.189765946093037</v>
       </c>
       <c r="I24">
-        <v>3.008035912252737</v>
+        <v>3.015788826682882</v>
       </c>
       <c r="J24">
-        <v>7.024002775249033</v>
+        <v>7.560992556945941</v>
       </c>
       <c r="K24">
-        <v>10.73202258565213</v>
+        <v>10.64051834610587</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.606375864038268</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.085625748659298</v>
       </c>
       <c r="N24">
-        <v>9.074474141928007</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.101153698705005</v>
       </c>
       <c r="Q24">
-        <v>10.53163263356156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.41045715526229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.37775495479482</v>
+        <v>26.39077671203626</v>
       </c>
       <c r="C25">
-        <v>15.68827029221694</v>
+        <v>15.60745579625849</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.705224254613436</v>
+        <v>8.612115503842354</v>
       </c>
       <c r="F25">
-        <v>33.19272459126712</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>14.4543733869551</v>
+        <v>13.63099099415646</v>
       </c>
       <c r="H25">
-        <v>1.87116071673129</v>
+        <v>1.890899841503307</v>
       </c>
       <c r="I25">
-        <v>2.755450107636613</v>
+        <v>2.790341569256999</v>
       </c>
       <c r="J25">
-        <v>7.199348946560185</v>
+        <v>7.751550233366198</v>
       </c>
       <c r="K25">
-        <v>11.28988002094907</v>
+        <v>11.17389873798025</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.915549329190901</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.531645342666454</v>
       </c>
       <c r="N25">
-        <v>8.498825852808553</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.531234019002627</v>
       </c>
       <c r="Q25">
-        <v>10.74787252611047</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.67218288508863</v>
       </c>
     </row>
   </sheetData>
